--- a/analyses/05.22.17-55m-2500m-AAtots.xlsx
+++ b/analyses/05.22.17-55m-2500m-AAtots.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13660"/>
+    <workbookView xWindow="1440" yWindow="460" windowWidth="24640" windowHeight="13660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="05.22.17_55m_db_tryp" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1211">
   <si>
     <t>Peptide</t>
   </si>
@@ -3583,13 +3584,82 @@
   </si>
   <si>
     <t>CTNVTKGGK</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Amino acid</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>depth (m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3720,6 +3790,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4066,9 +4144,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4426,8 +4506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P790"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4435,6 +4515,7 @@
     <col min="1" max="1" width="27.83203125" customWidth="1"/>
     <col min="13" max="13" width="157.5" customWidth="1"/>
     <col min="14" max="14" width="43.1640625" customWidth="1"/>
+    <col min="15" max="15" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -38966,4 +39047,1024 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1">
+        <v>97</v>
+      </c>
+      <c r="C1">
+        <v>97</v>
+      </c>
+      <c r="D1">
+        <v>111</v>
+      </c>
+      <c r="E1">
+        <v>111</v>
+      </c>
+      <c r="F1">
+        <v>264</v>
+      </c>
+      <c r="G1">
+        <v>264</v>
+      </c>
+      <c r="H1">
+        <v>265</v>
+      </c>
+      <c r="J1">
+        <v>266</v>
+      </c>
+      <c r="L1">
+        <v>267</v>
+      </c>
+      <c r="M1">
+        <v>268</v>
+      </c>
+      <c r="N1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B2" s="2">
+        <v>710</v>
+      </c>
+      <c r="D2" s="2">
+        <v>105</v>
+      </c>
+      <c r="F2" s="2">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2">
+        <v>94</v>
+      </c>
+      <c r="J2" s="2">
+        <v>265</v>
+      </c>
+      <c r="L2" s="2">
+        <v>265</v>
+      </c>
+      <c r="M2" s="2">
+        <v>965</v>
+      </c>
+      <c r="N2" s="2">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B3">
+        <v>721</v>
+      </c>
+      <c r="C3">
+        <f>B3/$B$23</f>
+        <v>8.7638264251853656E-2</v>
+      </c>
+      <c r="D3">
+        <v>1046</v>
+      </c>
+      <c r="E3">
+        <f>D3/$D$23</f>
+        <v>8.8599017448754869E-2</v>
+      </c>
+      <c r="F3">
+        <v>711</v>
+      </c>
+      <c r="G3">
+        <f>F3/$F$23</f>
+        <v>7.7391966909763799E-2</v>
+      </c>
+      <c r="H3">
+        <v>651</v>
+      </c>
+      <c r="I3">
+        <f>H3/$H$23</f>
+        <v>7.3926868044515107E-2</v>
+      </c>
+      <c r="J3">
+        <v>124</v>
+      </c>
+      <c r="L3">
+        <v>131</v>
+      </c>
+      <c r="M3">
+        <v>1132</v>
+      </c>
+      <c r="N3">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B4">
+        <v>653</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C22" si="0">B4/$B$23</f>
+        <v>7.9372796888294642E-2</v>
+      </c>
+      <c r="D4">
+        <v>672</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E22" si="1">D4/$D$23</f>
+        <v>5.6920210062679992E-2</v>
+      </c>
+      <c r="F4">
+        <v>460</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G22" si="2">F4/$F$23</f>
+        <v>5.0070752149776861E-2</v>
+      </c>
+      <c r="H4">
+        <v>520</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I22" si="3">H4/$H$23</f>
+        <v>5.90506472859414E-2</v>
+      </c>
+      <c r="J4">
+        <v>97</v>
+      </c>
+      <c r="L4">
+        <v>137</v>
+      </c>
+      <c r="M4">
+        <v>684</v>
+      </c>
+      <c r="N4">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B5">
+        <v>422</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>5.1294518050322112E-2</v>
+      </c>
+      <c r="D5">
+        <v>509</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4.3113671014738265E-2</v>
+      </c>
+      <c r="F5">
+        <v>409</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>4.451942962882334E-2</v>
+      </c>
+      <c r="H5">
+        <v>369</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>4.1903247785600728E-2</v>
+      </c>
+      <c r="J5">
+        <v>69</v>
+      </c>
+      <c r="L5">
+        <v>102</v>
+      </c>
+      <c r="M5">
+        <v>857</v>
+      </c>
+      <c r="N5">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B6">
+        <v>372</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4.5216968518293425E-2</v>
+      </c>
+      <c r="D6">
+        <v>777</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>6.5813992884973749E-2</v>
+      </c>
+      <c r="F6">
+        <v>475</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>5.1703494067704366E-2</v>
+      </c>
+      <c r="H6">
+        <v>493</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>5.5984555984555984E-2</v>
+      </c>
+      <c r="J6">
+        <v>87</v>
+      </c>
+      <c r="L6">
+        <v>106</v>
+      </c>
+      <c r="M6">
+        <v>1136</v>
+      </c>
+      <c r="N6">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B7">
+        <v>175</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2.1271423362100399E-2</v>
+      </c>
+      <c r="D7">
+        <v>172</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.4568863289852617E-2</v>
+      </c>
+      <c r="F7">
+        <v>159</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>1.7307064330031565E-2</v>
+      </c>
+      <c r="H7">
+        <v>120</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1.3627072450601862E-2</v>
+      </c>
+      <c r="J7">
+        <v>29</v>
+      </c>
+      <c r="L7">
+        <v>62</v>
+      </c>
+      <c r="M7">
+        <v>239</v>
+      </c>
+      <c r="N7">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B8">
+        <v>326</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3.962562294882703E-2</v>
+      </c>
+      <c r="D8">
+        <v>449</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3.8031509401998981E-2</v>
+      </c>
+      <c r="F8">
+        <v>323</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>3.515837596603897E-2</v>
+      </c>
+      <c r="H8">
+        <v>279</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>3.1682943447649332E-2</v>
+      </c>
+      <c r="J8">
+        <v>49</v>
+      </c>
+      <c r="L8">
+        <v>75</v>
+      </c>
+      <c r="M8">
+        <v>469</v>
+      </c>
+      <c r="N8">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B9">
+        <v>428</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>5.2023823994165552E-2</v>
+      </c>
+      <c r="D9">
+        <v>1240</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.10503133999661189</v>
+      </c>
+      <c r="F9">
+        <v>565</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>6.1499945575269402E-2</v>
+      </c>
+      <c r="H9">
+        <v>678</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>7.6992959345900516E-2</v>
+      </c>
+      <c r="J9">
+        <v>77</v>
+      </c>
+      <c r="L9">
+        <v>132</v>
+      </c>
+      <c r="M9">
+        <v>1613</v>
+      </c>
+      <c r="N9">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B10">
+        <v>429</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>5.2145374984806127E-2</v>
+      </c>
+      <c r="D10">
+        <v>398</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3.3711672031170592E-2</v>
+      </c>
+      <c r="F10">
+        <v>292</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>3.1784042668988786E-2</v>
+      </c>
+      <c r="H10">
+        <v>319</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>3.6225300931183285E-2</v>
+      </c>
+      <c r="J10">
+        <v>61</v>
+      </c>
+      <c r="L10">
+        <v>94</v>
+      </c>
+      <c r="M10">
+        <v>527</v>
+      </c>
+      <c r="N10">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B11">
+        <v>144</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.7503342652242616E-2</v>
+      </c>
+      <c r="D11">
+        <v>130</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.1011350160935117E-2</v>
+      </c>
+      <c r="F11">
+        <v>301</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>3.2763687819745292E-2</v>
+      </c>
+      <c r="H11">
+        <v>264</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>2.9979559391324098E-2</v>
+      </c>
+      <c r="J11">
+        <v>46</v>
+      </c>
+      <c r="L11">
+        <v>56</v>
+      </c>
+      <c r="M11">
+        <v>441</v>
+      </c>
+      <c r="N11">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B13">
+        <v>931</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.11316397228637413</v>
+      </c>
+      <c r="D13">
+        <v>2052</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.17380992715568355</v>
+      </c>
+      <c r="F13">
+        <v>782</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>8.5120278654620657E-2</v>
+      </c>
+      <c r="H13">
+        <v>750</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>8.5169202816261641E-2</v>
+      </c>
+      <c r="J13">
+        <v>150</v>
+      </c>
+      <c r="L13">
+        <v>188</v>
+      </c>
+      <c r="M13">
+        <v>1944</v>
+      </c>
+      <c r="N13">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B14">
+        <v>594</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>7.2201288440500791E-2</v>
+      </c>
+      <c r="D14">
+        <v>872</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>7.3860748771810938E-2</v>
+      </c>
+      <c r="F14">
+        <v>1119</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0.12180254707739196</v>
+      </c>
+      <c r="H14">
+        <v>1023</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.11617079264138087</v>
+      </c>
+      <c r="J14">
+        <v>139</v>
+      </c>
+      <c r="L14">
+        <v>172</v>
+      </c>
+      <c r="M14">
+        <v>2184</v>
+      </c>
+      <c r="N14">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B15">
+        <v>328</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>3.9868724930108179E-2</v>
+      </c>
+      <c r="D15">
+        <v>304</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>2.5749618837879046E-2</v>
+      </c>
+      <c r="F15">
+        <v>603</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>6.5636225100685758E-2</v>
+      </c>
+      <c r="H15">
+        <v>490</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>5.5643879173290937E-2</v>
+      </c>
+      <c r="J15">
+        <v>65</v>
+      </c>
+      <c r="L15">
+        <v>96</v>
+      </c>
+      <c r="M15">
+        <v>1053</v>
+      </c>
+      <c r="N15">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B16">
+        <v>293</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>3.5614440257688097E-2</v>
+      </c>
+      <c r="D16">
+        <v>527</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>4.4638319498560057E-2</v>
+      </c>
+      <c r="F16">
+        <v>341</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>3.7117666267551974E-2</v>
+      </c>
+      <c r="H16">
+        <v>272</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>3.0888030888030889E-2</v>
+      </c>
+      <c r="J16">
+        <v>59</v>
+      </c>
+      <c r="L16">
+        <v>65</v>
+      </c>
+      <c r="M16">
+        <v>684</v>
+      </c>
+      <c r="N16">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B17">
+        <v>424</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5.1537620031603261E-2</v>
+      </c>
+      <c r="D17">
+        <v>228</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.9312214128409284E-2</v>
+      </c>
+      <c r="F17">
+        <v>541</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>5.8887558506585391E-2</v>
+      </c>
+      <c r="H17">
+        <v>555</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>6.3025210084033612E-2</v>
+      </c>
+      <c r="J17">
+        <v>95</v>
+      </c>
+      <c r="L17">
+        <v>121</v>
+      </c>
+      <c r="M17">
+        <v>1112</v>
+      </c>
+      <c r="N17">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B18">
+        <v>483</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>5.8709128479397105E-2</v>
+      </c>
+      <c r="D18">
+        <v>561</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>4.7518211079112319E-2</v>
+      </c>
+      <c r="F18">
+        <v>401</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>4.3648633939262001E-2</v>
+      </c>
+      <c r="H18">
+        <v>428</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>4.860322507381331E-2</v>
+      </c>
+      <c r="J18">
+        <v>78</v>
+      </c>
+      <c r="L18">
+        <v>97</v>
+      </c>
+      <c r="M18">
+        <v>652</v>
+      </c>
+      <c r="N18">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B19">
+        <v>470</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>5.7128965601069649E-2</v>
+      </c>
+      <c r="D19">
+        <v>626</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>5.3023886159579876E-2</v>
+      </c>
+      <c r="F19">
+        <v>572</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>6.2261891803635575E-2</v>
+      </c>
+      <c r="H19">
+        <v>511</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>5.8028616852146261E-2</v>
+      </c>
+      <c r="J19">
+        <v>79</v>
+      </c>
+      <c r="L19">
+        <v>97</v>
+      </c>
+      <c r="M19">
+        <v>924</v>
+      </c>
+      <c r="N19">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B20">
+        <v>161</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1.9569709493132369E-2</v>
+      </c>
+      <c r="D20">
+        <v>112</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>9.4867016771133326E-3</v>
+      </c>
+      <c r="F20">
+        <v>237</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>2.57973223032546E-2</v>
+      </c>
+      <c r="H20">
+        <v>206</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>2.3393141040199864E-2</v>
+      </c>
+      <c r="J20">
+        <v>40</v>
+      </c>
+      <c r="L20">
+        <v>54</v>
+      </c>
+      <c r="M20">
+        <v>381</v>
+      </c>
+      <c r="N20">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B21">
+        <v>295</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>3.5857542238969246E-2</v>
+      </c>
+      <c r="D21">
+        <v>392</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>3.3203455869896661E-2</v>
+      </c>
+      <c r="F21">
+        <v>301</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>3.2763687819745292E-2</v>
+      </c>
+      <c r="H21">
+        <v>272</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>3.0888030888030889E-2</v>
+      </c>
+      <c r="J21">
+        <v>42</v>
+      </c>
+      <c r="L21">
+        <v>67</v>
+      </c>
+      <c r="M21">
+        <v>341</v>
+      </c>
+      <c r="N21">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B22">
+        <v>578</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>7.0256472590251612E-2</v>
+      </c>
+      <c r="D22">
+        <v>739</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>6.2595290530238865E-2</v>
+      </c>
+      <c r="F22">
+        <v>595</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>6.4765429411124412E-2</v>
+      </c>
+      <c r="H22">
+        <v>606</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>6.8816715875539405E-2</v>
+      </c>
+      <c r="J22">
+        <v>123</v>
+      </c>
+      <c r="L22">
+        <v>159</v>
+      </c>
+      <c r="M22">
+        <v>1256</v>
+      </c>
+      <c r="N22">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="3" customFormat="1">
+      <c r="A23" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B23" s="3">
+        <f>SUM(B3:B22)</f>
+        <v>8227</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D23:N23" si="4">SUM(D3:D22)</f>
+        <v>11806</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="4"/>
+        <v>9187</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="4"/>
+        <v>8806</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="4"/>
+        <v>1509</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="4"/>
+        <v>2011</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="4"/>
+        <v>17629</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="4"/>
+        <v>27528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/analyses/05.22.17-55m-2500m-AAtots.xlsx
+++ b/analyses/05.22.17-55m-2500m-AAtots.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB6DA0B-BD98-1C43-9B4C-F83DA744C2DF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="460" windowWidth="24640" windowHeight="13660" activeTab="1"/>
+    <workbookView xWindow="3700" yWindow="1480" windowWidth="24640" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05.22.17_55m_db_tryp" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="DB-AAtot-calcs" sheetId="2" r:id="rId2"/>
+    <sheet name="DN-Aatot-calcs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="1357">
   <si>
     <t>Peptide</t>
   </si>
@@ -3613,12 +3615,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -3646,20 +3642,1655 @@
     <t>V</t>
   </si>
   <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>depth (m)</t>
+  </si>
+  <si>
+    <t>L+I</t>
+  </si>
+  <si>
+    <t>Running #</t>
+  </si>
+  <si>
     <t>Amino acid</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>depth (m)</t>
+    <t>Abbreviations</t>
+  </si>
+  <si>
+    <t>Alanine</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>Arginine</t>
+  </si>
+  <si>
+    <t>Arg</t>
+  </si>
+  <si>
+    <t>Asparagine</t>
+  </si>
+  <si>
+    <t>Asn</t>
+  </si>
+  <si>
+    <t>Aspartic acid</t>
+  </si>
+  <si>
+    <t>Asp</t>
+  </si>
+  <si>
+    <t>Cysteine</t>
+  </si>
+  <si>
+    <t>Cys</t>
+  </si>
+  <si>
+    <t>Glutamine</t>
+  </si>
+  <si>
+    <t>Gln</t>
+  </si>
+  <si>
+    <t>Glutamic acid</t>
+  </si>
+  <si>
+    <t>Glu</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>Gly</t>
+  </si>
+  <si>
+    <t>Histidine</t>
+  </si>
+  <si>
+    <t>His</t>
+  </si>
+  <si>
+    <t>Isoleucine</t>
+  </si>
+  <si>
+    <t>Ile</t>
+  </si>
+  <si>
+    <t>Leucine</t>
+  </si>
+  <si>
+    <t>Leu</t>
+  </si>
+  <si>
+    <t>Lysine</t>
+  </si>
+  <si>
+    <t>Lys</t>
+  </si>
+  <si>
+    <t>Methionine</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>Phenylalanine</t>
+  </si>
+  <si>
+    <t>Phe</t>
+  </si>
+  <si>
+    <t>Proline</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>Serine</t>
+  </si>
+  <si>
+    <t>Ser</t>
+  </si>
+  <si>
+    <t>Threonine</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>Tryptophan</t>
+  </si>
+  <si>
+    <t>Trp</t>
+  </si>
+  <si>
+    <t>Tyrosine</t>
+  </si>
+  <si>
+    <t>Tyr</t>
+  </si>
+  <si>
+    <t>Valine</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>Molecular formula</t>
+  </si>
+  <si>
+    <t>Linear formula</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>CH3-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>HN=C(NH2)-NH-(CH2)3-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>H2N-CO-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>HOOC-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+  </si>
+  <si>
+    <t>HS-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>H2N-CO-(CH2)2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>HOOC-(CH2)2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>NH2-CH2-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>NH-CH=N-CH=C-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>CH3-CH2-CH(CH3)-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>(CH3)2-CH-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>H2N-(CH2)4-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+  </si>
+  <si>
+    <t>CH3-S-(CH2)2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Ph-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>NH-(CH2)3-CH-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>HO-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>CH3-CH(OH)-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Ph-NH-CH=C-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>HO-Ph-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>(CH3)2-CH-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>elemental mass C, H, N, O, S:</t>
+  </si>
+  <si>
+    <t>#AA 97</t>
+  </si>
+  <si>
+    <t>#AA 111</t>
+  </si>
+  <si>
+    <t>#AA 264</t>
+  </si>
+  <si>
+    <t>#AA 265</t>
+  </si>
+  <si>
+    <t>#AA 266</t>
+  </si>
+  <si>
+    <t>#AA 267</t>
+  </si>
+  <si>
+    <t>#AA 268</t>
+  </si>
+  <si>
+    <t>#AA 269</t>
+  </si>
+  <si>
+    <t>%AA 97</t>
+  </si>
+  <si>
+    <t>%AA 111</t>
+  </si>
+  <si>
+    <t>%AA 264</t>
+  </si>
+  <si>
+    <t>%AA 265</t>
+  </si>
+  <si>
+    <t>%AA 266</t>
+  </si>
+  <si>
+    <t>%AA 267</t>
+  </si>
+  <si>
+    <t>%AA 268</t>
+  </si>
+  <si>
+    <t>%AA 269</t>
+  </si>
+  <si>
+    <t>%C of AA</t>
+  </si>
+  <si>
+    <t>%H of AA</t>
+  </si>
+  <si>
+    <t>%N of AA</t>
+  </si>
+  <si>
+    <t>%O of AA</t>
+  </si>
+  <si>
+    <t>%S of AA</t>
+  </si>
+  <si>
+    <t>AA molecular weight</t>
+  </si>
+  <si>
+    <t>%C 97 from AA</t>
+  </si>
+  <si>
+    <t>%H 97 from AA</t>
+  </si>
+  <si>
+    <t>%N 97 from AA</t>
+  </si>
+  <si>
+    <t>%O 97 from AA</t>
+  </si>
+  <si>
+    <t>%S 97 from AA</t>
+  </si>
+  <si>
+    <t>%C 111 from AA</t>
+  </si>
+  <si>
+    <t>%H 111 from AA</t>
+  </si>
+  <si>
+    <t>%N 111 from AA</t>
+  </si>
+  <si>
+    <t>%O 111 from AA</t>
+  </si>
+  <si>
+    <t>%S 111 from AA</t>
+  </si>
+  <si>
+    <t>%C 264 from AA</t>
+  </si>
+  <si>
+    <t>%H 264 from AA</t>
+  </si>
+  <si>
+    <t>%N 264 from AA</t>
+  </si>
+  <si>
+    <t>%O 264 from AA</t>
+  </si>
+  <si>
+    <t>%S 264 from AA</t>
+  </si>
+  <si>
+    <t>%C 265 from AA</t>
+  </si>
+  <si>
+    <t>%H 265 from AA</t>
+  </si>
+  <si>
+    <t>%N 265 from AA</t>
+  </si>
+  <si>
+    <t>%O 265 from AA</t>
+  </si>
+  <si>
+    <t>%S 265 from AA</t>
+  </si>
+  <si>
+    <t>%C 266 from AA</t>
+  </si>
+  <si>
+    <t>%H 266 from AA</t>
+  </si>
+  <si>
+    <t>%N 266 from AA</t>
+  </si>
+  <si>
+    <t>%O 266 from AA</t>
+  </si>
+  <si>
+    <t>%S 266 from AA</t>
+  </si>
+  <si>
+    <t>%C 267 from AA</t>
+  </si>
+  <si>
+    <t>%H 267 from AA</t>
+  </si>
+  <si>
+    <t>%N 267 from AA</t>
+  </si>
+  <si>
+    <t>%O 267 from AA</t>
+  </si>
+  <si>
+    <t>%S 267 from AA</t>
+  </si>
+  <si>
+    <t>%C 268 from AA</t>
+  </si>
+  <si>
+    <t>%H 268 from AA</t>
+  </si>
+  <si>
+    <t>%N 268 from AA</t>
+  </si>
+  <si>
+    <t>%O 268 from AA</t>
+  </si>
+  <si>
+    <t>%S 268 from AA</t>
+  </si>
+  <si>
+    <t>%C 269 from AA</t>
+  </si>
+  <si>
+    <t>%H 269 from AA</t>
+  </si>
+  <si>
+    <t>%N 269 from AA</t>
+  </si>
+  <si>
+    <t>%O 269 from AA</t>
+  </si>
+  <si>
+    <t>%S 269 from AA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3802,8 +5433,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3983,6 +5646,66 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4144,11 +5867,31 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4503,10 +6246,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P790"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -39050,535 +40793,663 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:BU47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="AH47" sqref="AH47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="28" max="28" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B1">
+    <row r="2" spans="1:17" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B2" s="6">
         <v>97</v>
       </c>
-      <c r="C1">
+      <c r="C2" s="6">
         <v>97</v>
       </c>
-      <c r="D1">
+      <c r="D2" s="5">
         <v>111</v>
       </c>
-      <c r="E1">
+      <c r="E2" s="5">
         <v>111</v>
       </c>
-      <c r="F1">
+      <c r="F2" s="4">
         <v>264</v>
       </c>
-      <c r="G1">
+      <c r="G2" s="4">
         <v>264</v>
       </c>
-      <c r="H1">
+      <c r="H2" s="4">
         <v>265</v>
       </c>
-      <c r="J1">
+      <c r="I2" s="4">
+        <v>265</v>
+      </c>
+      <c r="J2" s="8">
         <v>266</v>
       </c>
-      <c r="L1">
+      <c r="K2" s="8">
+        <v>266</v>
+      </c>
+      <c r="L2" s="8">
         <v>267</v>
       </c>
-      <c r="M1">
+      <c r="M2" s="8">
+        <v>267</v>
+      </c>
+      <c r="N2" s="7">
         <v>268</v>
       </c>
-      <c r="N1">
+      <c r="O2" s="7">
+        <v>268</v>
+      </c>
+      <c r="P2" s="7">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1">
-      <c r="A2" s="2" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="Q2" s="7">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B3" s="12">
         <v>710</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C3" s="12"/>
+      <c r="D3" s="14">
         <v>105</v>
       </c>
-      <c r="F2" s="2">
+      <c r="E3" s="14"/>
+      <c r="F3" s="10">
         <v>94</v>
       </c>
-      <c r="H2" s="2">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10">
         <v>94</v>
       </c>
-      <c r="J2" s="2">
+      <c r="I3" s="10"/>
+      <c r="J3" s="11">
         <v>265</v>
       </c>
-      <c r="L2" s="2">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11">
         <v>265</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M3" s="11"/>
+      <c r="N3" s="13">
         <v>965</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O3" s="13"/>
+      <c r="P3" s="13">
         <v>965</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
         <v>1188</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>721</v>
-      </c>
-      <c r="C3">
-        <f>B3/$B$23</f>
-        <v>8.7638264251853656E-2</v>
-      </c>
-      <c r="D3">
-        <v>1046</v>
-      </c>
-      <c r="E3">
-        <f>D3/$D$23</f>
-        <v>8.8599017448754869E-2</v>
-      </c>
-      <c r="F3">
-        <v>711</v>
-      </c>
-      <c r="G3">
-        <f>F3/$F$23</f>
-        <v>7.7391966909763799E-2</v>
-      </c>
-      <c r="H3">
-        <v>651</v>
-      </c>
-      <c r="I3">
-        <f>H3/$H$23</f>
-        <v>7.3926868044515107E-2</v>
-      </c>
-      <c r="J3">
-        <v>124</v>
-      </c>
-      <c r="L3">
-        <v>131</v>
-      </c>
-      <c r="M3">
-        <v>1132</v>
-      </c>
-      <c r="N3">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B4">
-        <v>653</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C22" si="0">B4/$B$23</f>
-        <v>7.9372796888294642E-2</v>
+        <v>8.7638264251853656E-2</v>
       </c>
       <c r="D4">
-        <v>672</v>
+        <v>1046</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E22" si="1">D4/$D$23</f>
-        <v>5.6920210062679992E-2</v>
+        <v>8.8599017448754869E-2</v>
       </c>
       <c r="F4">
-        <v>460</v>
+        <v>711</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G22" si="2">F4/$F$23</f>
-        <v>5.0070752149776861E-2</v>
+        <v>7.7391966909763799E-2</v>
       </c>
       <c r="H4">
-        <v>520</v>
+        <v>651</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I22" si="3">H4/$H$23</f>
-        <v>5.90506472859414E-2</v>
+        <v>7.3926868044515107E-2</v>
       </c>
       <c r="J4">
-        <v>97</v>
+        <v>124</v>
+      </c>
+      <c r="K4">
+        <f>J4/$J$23</f>
+        <v>8.2173624917163679E-2</v>
       </c>
       <c r="L4">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M4">
-        <v>684</v>
+        <f>L4/$L$23</f>
+        <v>6.5141720537046241E-2</v>
       </c>
       <c r="N4">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1132</v>
+      </c>
+      <c r="O4">
+        <f>N4/$N$23</f>
+        <v>6.4212377332803897E-2</v>
+      </c>
+      <c r="P4">
+        <v>1830</v>
+      </c>
+      <c r="Q4">
+        <f>P4/$P$23</f>
+        <v>6.647776809067131E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B5">
-        <v>422</v>
+        <v>653</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>5.1294518050322112E-2</v>
+        <v>7.9372796888294642E-2</v>
       </c>
       <c r="D5">
-        <v>509</v>
+        <v>672</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>4.3113671014738265E-2</v>
+        <v>5.6920210062679992E-2</v>
       </c>
       <c r="F5">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>4.451942962882334E-2</v>
+        <v>5.0070752149776861E-2</v>
       </c>
       <c r="H5">
-        <v>369</v>
+        <v>520</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>4.1903247785600728E-2</v>
+        <v>5.90506472859414E-2</v>
       </c>
       <c r="J5">
-        <v>69</v>
+        <v>97</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K22" si="4">J5/$J$23</f>
+        <v>6.428098078197482E-2</v>
       </c>
       <c r="L5">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="M5">
-        <v>857</v>
+        <f t="shared" ref="M5:M22" si="5">L5/$L$23</f>
+        <v>6.8125310790651414E-2</v>
       </c>
       <c r="N5">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>684</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O22" si="6">N5/$N$23</f>
+        <v>3.8799705031482216E-2</v>
+      </c>
+      <c r="P5">
+        <v>1053</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q22" si="7">P5/$P$23</f>
+        <v>3.8251961639058411E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B6">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>4.5216968518293425E-2</v>
+        <v>5.1294518050322112E-2</v>
       </c>
       <c r="D6">
-        <v>777</v>
+        <v>509</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>6.5813992884973749E-2</v>
+        <v>4.3113671014738265E-2</v>
       </c>
       <c r="F6">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>5.1703494067704366E-2</v>
+        <v>4.451942962882334E-2</v>
       </c>
       <c r="H6">
-        <v>493</v>
+        <v>369</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>5.5984555984555984E-2</v>
+        <v>4.1903247785600728E-2</v>
       </c>
       <c r="J6">
-        <v>87</v>
+        <v>69</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>4.5725646123260438E-2</v>
       </c>
       <c r="L6">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M6">
-        <v>1136</v>
+        <f t="shared" si="5"/>
+        <v>5.0721034311287917E-2</v>
       </c>
       <c r="N6">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>857</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>4.8613080719269383E-2</v>
+      </c>
+      <c r="P6">
+        <v>1388</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>5.042138913106655E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B7">
-        <v>175</v>
+        <v>372</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>2.1271423362100399E-2</v>
+        <v>4.5216968518293425E-2</v>
       </c>
       <c r="D7">
-        <v>172</v>
+        <v>777</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>1.4568863289852617E-2</v>
+        <v>6.5813992884973749E-2</v>
       </c>
       <c r="F7">
-        <v>159</v>
+        <v>475</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>1.7307064330031565E-2</v>
+        <v>5.1703494067704366E-2</v>
       </c>
       <c r="H7">
-        <v>120</v>
+        <v>493</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>1.3627072450601862E-2</v>
+        <v>5.5984555984555984E-2</v>
       </c>
       <c r="J7">
-        <v>29</v>
+        <v>87</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>5.7654075546719682E-2</v>
       </c>
       <c r="L7">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="M7">
-        <v>239</v>
+        <f t="shared" si="5"/>
+        <v>5.271009448035803E-2</v>
       </c>
       <c r="N7">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1136</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>6.4439276192637132E-2</v>
+      </c>
+      <c r="P7">
+        <v>1934</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>7.0255739610578322E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B8">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>3.962562294882703E-2</v>
+        <v>2.1271423362100399E-2</v>
       </c>
       <c r="D8">
-        <v>449</v>
+        <v>172</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>3.8031509401998981E-2</v>
+        <v>1.4568863289852617E-2</v>
       </c>
       <c r="F8">
-        <v>323</v>
+        <v>159</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>3.515837596603897E-2</v>
+        <v>1.7307064330031565E-2</v>
       </c>
       <c r="H8">
-        <v>279</v>
+        <v>120</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>3.1682943447649332E-2</v>
+        <v>1.3627072450601862E-2</v>
       </c>
       <c r="J8">
-        <v>49</v>
+        <v>29</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>1.9218025182239893E-2</v>
       </c>
       <c r="L8">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="M8">
-        <v>469</v>
+        <f t="shared" si="5"/>
+        <v>3.0830432620586774E-2</v>
       </c>
       <c r="N8">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>239</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>1.3557206875035453E-2</v>
+      </c>
+      <c r="P8">
+        <v>335</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>1.2169427492008137E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B9">
-        <v>428</v>
+        <v>326</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>5.2023823994165552E-2</v>
+        <v>3.962562294882703E-2</v>
       </c>
       <c r="D9">
-        <v>1240</v>
+        <v>449</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.10503133999661189</v>
+        <v>3.8031509401998981E-2</v>
       </c>
       <c r="F9">
-        <v>565</v>
+        <v>323</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>6.1499945575269402E-2</v>
+        <v>3.515837596603897E-2</v>
       </c>
       <c r="H9">
-        <v>678</v>
+        <v>279</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>7.6992959345900516E-2</v>
+        <v>3.1682943447649332E-2</v>
       </c>
       <c r="J9">
-        <v>77</v>
+        <v>49</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>3.2471835652750164E-2</v>
       </c>
       <c r="L9">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="M9">
-        <v>1613</v>
+        <f t="shared" si="5"/>
+        <v>3.7294878170064646E-2</v>
       </c>
       <c r="N9">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>469</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>2.6603891315446139E-2</v>
+      </c>
+      <c r="P9">
+        <v>819</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="7"/>
+        <v>2.9751525719267653E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B10">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>5.2145374984806127E-2</v>
+        <v>5.2023823994165552E-2</v>
       </c>
       <c r="D10">
-        <v>398</v>
+        <v>1240</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>3.3711672031170592E-2</v>
+        <v>0.10503133999661189</v>
       </c>
       <c r="F10">
-        <v>292</v>
+        <v>565</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>3.1784042668988786E-2</v>
+        <v>6.1499945575269402E-2</v>
       </c>
       <c r="H10">
-        <v>319</v>
+        <v>678</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>3.6225300931183285E-2</v>
+        <v>7.6992959345900516E-2</v>
       </c>
       <c r="J10">
-        <v>61</v>
+        <v>77</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>5.1027170311464545E-2</v>
       </c>
       <c r="L10">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="M10">
-        <v>527</v>
+        <f t="shared" si="5"/>
+        <v>6.5638985579313774E-2</v>
       </c>
       <c r="N10">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1613</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>9.1496965227749735E-2</v>
+      </c>
+      <c r="P10">
+        <v>2307</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="7"/>
+        <v>8.3805579773321703E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B11">
-        <v>144</v>
+        <v>429</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1.7503342652242616E-2</v>
+        <v>5.2145374984806127E-2</v>
       </c>
       <c r="D11">
-        <v>130</v>
+        <v>398</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>1.1011350160935117E-2</v>
+        <v>3.3711672031170592E-2</v>
       </c>
       <c r="F11">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>3.2763687819745292E-2</v>
+        <v>3.1784042668988786E-2</v>
       </c>
       <c r="H11">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>2.9979559391324098E-2</v>
+        <v>3.6225300931183285E-2</v>
       </c>
       <c r="J11">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>4.0424121935056331E-2</v>
       </c>
       <c r="L11">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="M11">
-        <v>441</v>
+        <f t="shared" si="5"/>
+        <v>4.6742913973147684E-2</v>
       </c>
       <c r="N11">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>527</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>2.9893924783027964E-2</v>
+      </c>
+      <c r="P11">
+        <v>895</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="7"/>
+        <v>3.2512351060738159E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7503342652242616E-2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1011350160935117E-2</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.2763687819745292E-2</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.9979559391324098E-2</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>3.0483764082173626E-2</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2.7846842366981601E-2</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>441</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>2.5015599296613535E-2</v>
+      </c>
+      <c r="P12">
+        <v>698</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="7"/>
+        <v>2.5356001162452776E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>1198</v>
+        <v>1208</v>
       </c>
       <c r="B13">
         <v>931</v>
@@ -39611,19 +41482,35 @@
       <c r="J13">
         <v>150</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>9.9403578528827044E-2</v>
+      </c>
       <c r="L13">
         <v>188</v>
       </c>
       <c r="M13">
+        <f t="shared" si="5"/>
+        <v>9.3485827946295369E-2</v>
+      </c>
+      <c r="N13">
         <v>1944</v>
       </c>
-      <c r="N13">
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>0.11027284587894946</v>
+      </c>
+      <c r="P13">
         <v>3005</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="Q13">
+        <f t="shared" si="7"/>
+        <v>0.10916158093577448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B14">
         <v>594</v>
@@ -39656,19 +41543,35 @@
       <c r="J14">
         <v>139</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>9.2113982770046385E-2</v>
+      </c>
       <c r="L14">
         <v>172</v>
       </c>
       <c r="M14">
+        <f t="shared" si="5"/>
+        <v>8.5529587270014917E-2</v>
+      </c>
+      <c r="N14">
         <v>2184</v>
       </c>
-      <c r="N14">
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>0.12388677746894322</v>
+      </c>
+      <c r="P14">
         <v>3318</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="Q14">
+        <f t="shared" si="7"/>
+        <v>0.12053182214472537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B15">
         <v>328</v>
@@ -39701,19 +41604,35 @@
       <c r="J15">
         <v>65</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>4.3074884029158385E-2</v>
+      </c>
       <c r="L15">
         <v>96</v>
       </c>
       <c r="M15">
+        <f t="shared" si="5"/>
+        <v>4.7737444057682744E-2</v>
+      </c>
+      <c r="N15">
         <v>1053</v>
       </c>
-      <c r="N15">
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>5.9731124851097626E-2</v>
+      </c>
+      <c r="P15">
         <v>1678</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="Q15">
+        <f t="shared" si="7"/>
+        <v>6.0956117407730312E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B16">
         <v>293</v>
@@ -39746,19 +41665,35 @@
       <c r="J16">
         <v>59</v>
       </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>3.9098740888005301E-2</v>
+      </c>
       <c r="L16">
         <v>65</v>
       </c>
       <c r="M16">
+        <f t="shared" si="5"/>
+        <v>3.2322227747389361E-2</v>
+      </c>
+      <c r="N16">
         <v>684</v>
       </c>
-      <c r="N16">
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>3.8799705031482216E-2</v>
+      </c>
+      <c r="P16">
         <v>904</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="Q16">
+        <f t="shared" si="7"/>
+        <v>3.2839290903807036E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:73">
       <c r="A17" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B17">
         <v>424</v>
@@ -39791,19 +41726,35 @@
       <c r="J17">
         <v>95</v>
       </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>6.2955599734923789E-2</v>
+      </c>
       <c r="L17">
         <v>121</v>
       </c>
       <c r="M17">
+        <f t="shared" si="5"/>
+        <v>6.0169070114370962E-2</v>
+      </c>
+      <c r="N17">
         <v>1112</v>
       </c>
-      <c r="N17">
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>6.3077883033637761E-2</v>
+      </c>
+      <c r="P17">
         <v>1752</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="Q17">
+        <f t="shared" si="7"/>
+        <v>6.3644289450741062E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:73">
       <c r="A18" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B18">
         <v>483</v>
@@ -39836,19 +41787,35 @@
       <c r="J18">
         <v>78</v>
       </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>5.168986083499006E-2</v>
+      </c>
       <c r="L18">
         <v>97</v>
       </c>
       <c r="M18">
+        <f t="shared" si="5"/>
+        <v>4.8234709099950271E-2</v>
+      </c>
+      <c r="N18">
         <v>652</v>
       </c>
-      <c r="N18">
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>3.6984514152816381E-2</v>
+      </c>
+      <c r="P18">
         <v>1092</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="Q18">
+        <f t="shared" si="7"/>
+        <v>3.9668700959023542E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:73">
       <c r="A19" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B19">
         <v>470</v>
@@ -39881,19 +41848,35 @@
       <c r="J19">
         <v>79</v>
       </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>5.2352551358515576E-2</v>
+      </c>
       <c r="L19">
         <v>97</v>
       </c>
       <c r="M19">
+        <f t="shared" si="5"/>
+        <v>4.8234709099950271E-2</v>
+      </c>
+      <c r="N19">
         <v>924</v>
       </c>
-      <c r="N19">
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>5.2413636621475974E-2</v>
+      </c>
+      <c r="P19">
         <v>1364</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="Q19">
+        <f t="shared" si="7"/>
+        <v>4.954954954954955E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:73">
       <c r="A20" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B20">
         <v>161</v>
@@ -39926,19 +41909,35 @@
       <c r="J20">
         <v>40</v>
       </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>2.6507620941020542E-2</v>
+      </c>
       <c r="L20">
         <v>54</v>
       </c>
       <c r="M20">
+        <f t="shared" si="5"/>
+        <v>2.6852312282446545E-2</v>
+      </c>
+      <c r="N20">
         <v>381</v>
       </c>
-      <c r="N20">
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>2.1612116399115096E-2</v>
+      </c>
+      <c r="P20">
         <v>597</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="Q20">
+        <f t="shared" si="7"/>
+        <v>2.1687009590235395E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:73">
       <c r="A21" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B21">
         <v>295</v>
@@ -39971,19 +41970,35 @@
       <c r="J21">
         <v>42</v>
       </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>2.7833001988071572E-2</v>
+      </c>
       <c r="L21">
         <v>67</v>
       </c>
       <c r="M21">
+        <f t="shared" si="5"/>
+        <v>3.3316757831924414E-2</v>
+      </c>
+      <c r="N21">
         <v>341</v>
       </c>
-      <c r="N21">
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>1.9343127800782799E-2</v>
+      </c>
+      <c r="P21">
         <v>606</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="Q21">
+        <f t="shared" si="7"/>
+        <v>2.2013949433304272E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:73">
       <c r="A22" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B22">
         <v>578</v>
@@ -40016,55 +42031,5834 @@
       <c r="J22">
         <v>123</v>
       </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>8.1510934393638171E-2</v>
+      </c>
       <c r="L22">
         <v>159</v>
       </c>
       <c r="M22">
+        <f t="shared" si="5"/>
+        <v>7.9065141720537052E-2</v>
+      </c>
+      <c r="N22">
         <v>1256</v>
       </c>
-      <c r="N22">
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>7.1246241987634018E-2</v>
+      </c>
+      <c r="P22">
         <v>1953</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" s="3" customFormat="1">
+      <c r="Q22">
+        <f t="shared" si="7"/>
+        <v>7.0945945945945943E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:73" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="B23" s="3">
-        <f>SUM(B3:B22)</f>
+        <f>SUM(B4:B22)</f>
         <v>8227</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" ref="D23:N23" si="4">SUM(D3:D22)</f>
+        <f t="shared" ref="D23:P23" si="8">SUM(D4:D22)</f>
         <v>11806</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9187</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8806</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1509</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2011</v>
       </c>
-      <c r="M23" s="3">
-        <f t="shared" si="4"/>
+      <c r="N23" s="3">
+        <f t="shared" si="8"/>
         <v>17629</v>
       </c>
-      <c r="N23" s="3">
-        <f t="shared" si="4"/>
+      <c r="P23" s="3">
+        <f t="shared" si="8"/>
         <v>27528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:73" s="16" customFormat="1" ht="32">
+      <c r="A26" s="15" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>1296</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>1297</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>1298</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>1300</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>1301</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>1302</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>1303</v>
+      </c>
+      <c r="U26" s="17" t="s">
+        <v>1304</v>
+      </c>
+      <c r="V26" s="17" t="s">
+        <v>1305</v>
+      </c>
+      <c r="W26" s="17" t="s">
+        <v>1306</v>
+      </c>
+      <c r="X26" s="17" t="s">
+        <v>1307</v>
+      </c>
+      <c r="Y26" s="17" t="s">
+        <v>1308</v>
+      </c>
+      <c r="Z26" s="17" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AA26" s="17" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AB26" s="17" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AC26" s="15" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AD26" s="15" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AE26" s="15" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AF26" s="15" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AG26" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AH26" s="15" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AI26" s="15" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AJ26" s="15" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AK26" s="15" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AL26" s="15" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AM26" s="15" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AN26" s="15" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AO26" s="15" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AP26" s="15" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AQ26" s="15" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AR26" s="15" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AS26" s="15" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AT26" s="15" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AU26" s="15" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AV26" s="15" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AW26" s="15" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AX26" s="15" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AY26" s="15" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AZ26" s="15" t="s">
+        <v>1335</v>
+      </c>
+      <c r="BA26" s="15" t="s">
+        <v>1336</v>
+      </c>
+      <c r="BB26" s="15" t="s">
+        <v>1337</v>
+      </c>
+      <c r="BC26" s="15" t="s">
+        <v>1338</v>
+      </c>
+      <c r="BD26" s="15" t="s">
+        <v>1339</v>
+      </c>
+      <c r="BE26" s="15" t="s">
+        <v>1340</v>
+      </c>
+      <c r="BF26" s="15" t="s">
+        <v>1341</v>
+      </c>
+      <c r="BG26" s="15" t="s">
+        <v>1342</v>
+      </c>
+      <c r="BH26" s="15" t="s">
+        <v>1343</v>
+      </c>
+      <c r="BI26" s="15" t="s">
+        <v>1344</v>
+      </c>
+      <c r="BJ26" s="15" t="s">
+        <v>1345</v>
+      </c>
+      <c r="BK26" s="15" t="s">
+        <v>1346</v>
+      </c>
+      <c r="BL26" s="15" t="s">
+        <v>1347</v>
+      </c>
+      <c r="BM26" s="15" t="s">
+        <v>1348</v>
+      </c>
+      <c r="BN26" s="15" t="s">
+        <v>1349</v>
+      </c>
+      <c r="BO26" s="15" t="s">
+        <v>1350</v>
+      </c>
+      <c r="BP26" s="15" t="s">
+        <v>1351</v>
+      </c>
+      <c r="BQ26" s="15" t="s">
+        <v>1352</v>
+      </c>
+      <c r="BR26" s="15" t="s">
+        <v>1353</v>
+      </c>
+      <c r="BS26" s="15" t="s">
+        <v>1354</v>
+      </c>
+      <c r="BT26" s="15" t="s">
+        <v>1355</v>
+      </c>
+      <c r="BU26" s="15" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:73" ht="17">
+      <c r="A27" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>721</v>
+      </c>
+      <c r="M27">
+        <v>1046</v>
+      </c>
+      <c r="N27">
+        <v>711</v>
+      </c>
+      <c r="O27">
+        <v>651</v>
+      </c>
+      <c r="P27">
+        <v>124</v>
+      </c>
+      <c r="Q27">
+        <v>131</v>
+      </c>
+      <c r="R27">
+        <v>1132</v>
+      </c>
+      <c r="S27">
+        <v>1830</v>
+      </c>
+      <c r="T27">
+        <f>L27/$L$47</f>
+        <v>8.7638264251853656E-2</v>
+      </c>
+      <c r="U27">
+        <f>M27/$M$47</f>
+        <v>8.8599017448754869E-2</v>
+      </c>
+      <c r="V27">
+        <f>N27/$N$47</f>
+        <v>7.7391966909763799E-2</v>
+      </c>
+      <c r="W27">
+        <f>O27/$O$47</f>
+        <v>7.3926868044515107E-2</v>
+      </c>
+      <c r="X27">
+        <f>P27/$P$47</f>
+        <v>8.2173624917163679E-2</v>
+      </c>
+      <c r="Y27">
+        <f>Q27/$Q$47</f>
+        <v>6.5141720537046241E-2</v>
+      </c>
+      <c r="Z27">
+        <f>R27/$R$47</f>
+        <v>6.4212377332803897E-2</v>
+      </c>
+      <c r="AA27">
+        <f>S27/$S$47</f>
+        <v>6.647776809067131E-2</v>
+      </c>
+      <c r="AB27">
+        <f>(G27*$G$47)+(H27*$H$47)+(I27*$I$47)+(J27*$J$47)+(K27*$K$47)</f>
+        <v>89.092380000000006</v>
+      </c>
+      <c r="AC27">
+        <f>(G27*$G$47)/$AB27</f>
+        <v>0.40443526146680553</v>
+      </c>
+      <c r="AD27">
+        <f>(H27*$H$47)/$AB27</f>
+        <v>7.9193978205543511E-2</v>
+      </c>
+      <c r="AE27">
+        <f>(I27*$I$47)/$AB27</f>
+        <v>0.15721546556506852</v>
+      </c>
+      <c r="AF27">
+        <f>(J27*$J$47)/$AB27</f>
+        <v>0.3591552947625824</v>
+      </c>
+      <c r="AG27">
+        <f>(K27*$K$47)/$AB27</f>
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <f>$T27*AC27</f>
+        <v>3.5444004317195431E-2</v>
+      </c>
+      <c r="AI27">
+        <f>$T27*AD27</f>
+        <v>6.9404227891329611E-3</v>
+      </c>
+      <c r="AJ27">
+        <f>$T27*AE27</f>
+        <v>1.3778090515669673E-2</v>
+      </c>
+      <c r="AK27">
+        <f>$T27*AF27</f>
+        <v>3.147574662985559E-2</v>
+      </c>
+      <c r="AL27">
+        <f>$T27*AG27</f>
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <f>$U27*AC27</f>
+        <v>3.583256678758924E-2</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" ref="AN27:AQ42" si="9">$U27*AD27</f>
+        <v>7.0165086568692624E-3</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="9"/>
+        <v>1.3929135776813626E-2</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="9"/>
+        <v>3.1820806227482734E-2</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <f>$V27*AC27</f>
+        <v>3.1300040372580683E-2</v>
+      </c>
+      <c r="AS27">
+        <f t="shared" ref="AS27:AV42" si="10">$V27*AD27</f>
+        <v>6.1289777407359785E-3</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="10"/>
+        <v>1.2167214108714892E-2</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="10"/>
+        <v>2.7795734687732242E-2</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <f>$W27*AC27</f>
+        <v>2.9898632207005497E-2</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" ref="AX27:BA42" si="11">$W27*AD27</f>
+        <v>5.8545627767214205E-3</v>
+      </c>
+      <c r="AY27">
+        <f t="shared" si="11"/>
+        <v>1.1622446977385828E-2</v>
+      </c>
+      <c r="AZ27">
+        <f t="shared" si="11"/>
+        <v>2.6551226083402355E-2</v>
+      </c>
+      <c r="BA27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <f>$X27*AC27</f>
+        <v>3.3233911479048299E-2</v>
+      </c>
+      <c r="BC27">
+        <f t="shared" ref="BC27:BF42" si="12">$X27*AD27</f>
+        <v>6.5076562607603678E-3</v>
+      </c>
+      <c r="BD27">
+        <f t="shared" si="12"/>
+        <v>1.2918964698521202E-2</v>
+      </c>
+      <c r="BE27">
+        <f t="shared" si="12"/>
+        <v>2.9513092478833807E-2</v>
+      </c>
+      <c r="BF27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <f>$Y27*AC27</f>
+        <v>2.6345608777797871E-2</v>
+      </c>
+      <c r="BH27">
+        <f t="shared" ref="BH27:BK42" si="13">$Y27*AD27</f>
+        <v>5.158831996482446E-3</v>
+      </c>
+      <c r="BI27">
+        <f t="shared" si="13"/>
+        <v>1.0241285921941311E-2</v>
+      </c>
+      <c r="BJ27">
+        <f t="shared" si="13"/>
+        <v>2.3395993840824612E-2</v>
+      </c>
+      <c r="BK27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <f>$Z27*AC27</f>
+        <v>2.5969749615997722E-2</v>
+      </c>
+      <c r="BM27">
+        <f t="shared" ref="BM27:BP42" si="14">$Z27*AD27</f>
+        <v>5.0852336110202082E-3</v>
+      </c>
+      <c r="BN27">
+        <f t="shared" si="14"/>
+        <v>1.0095178797416617E-2</v>
+      </c>
+      <c r="BO27">
+        <f t="shared" si="14"/>
+        <v>2.3062215308369348E-2</v>
+      </c>
+      <c r="BP27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <f>$AA27*AC27</f>
+        <v>2.6885953519480314E-2</v>
+      </c>
+      <c r="BR27">
+        <f t="shared" ref="BR27:BU42" si="15">$AA27*AD27</f>
+        <v>5.2646389173257998E-3</v>
+      </c>
+      <c r="BS27">
+        <f t="shared" si="15"/>
+        <v>1.0451333260101546E-2</v>
+      </c>
+      <c r="BT27">
+        <f t="shared" si="15"/>
+        <v>2.3875842393763648E-2</v>
+      </c>
+      <c r="BU27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:73" ht="17">
+      <c r="A28" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>653</v>
+      </c>
+      <c r="M28">
+        <v>672</v>
+      </c>
+      <c r="N28">
+        <v>460</v>
+      </c>
+      <c r="O28">
+        <v>520</v>
+      </c>
+      <c r="P28">
+        <v>97</v>
+      </c>
+      <c r="Q28">
+        <v>137</v>
+      </c>
+      <c r="R28">
+        <v>684</v>
+      </c>
+      <c r="S28">
+        <v>1053</v>
+      </c>
+      <c r="T28">
+        <f t="shared" ref="T28:T47" si="16">L28/$L$47</f>
+        <v>7.9372796888294642E-2</v>
+      </c>
+      <c r="U28">
+        <f t="shared" ref="U28:U46" si="17">M28/$M$47</f>
+        <v>5.6920210062679992E-2</v>
+      </c>
+      <c r="V28">
+        <f t="shared" ref="V28:V46" si="18">N28/$N$47</f>
+        <v>5.0070752149776861E-2</v>
+      </c>
+      <c r="W28">
+        <f t="shared" ref="W28:W46" si="19">O28/$O$47</f>
+        <v>5.90506472859414E-2</v>
+      </c>
+      <c r="X28">
+        <f t="shared" ref="X28:X46" si="20">P28/$P$47</f>
+        <v>6.428098078197482E-2</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" ref="Y28:Y46" si="21">Q28/$Q$47</f>
+        <v>6.8125310790651414E-2</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" ref="Z28:Z46" si="22">R28/$R$47</f>
+        <v>3.8799705031482216E-2</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" ref="AA28:AA46" si="23">S28/$S$47</f>
+        <v>3.8251961639058411E-2</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" ref="AB28:AB46" si="24">(G28*$G$47)+(H28*$H$47)+(I28*$I$47)+(J28*$J$47)+(K28*$K$47)</f>
+        <v>174.20015999999998</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" ref="AC28:AC46" si="25">(G28*$G$47)/AB28</f>
+        <v>0.41368618719982808</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" ref="AD28:AD46" si="26">(H28*$H$47)/$AB28</f>
+        <v>8.1005436504765577E-2</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" ref="AE28:AE46" si="27">(I28*$I$47)/$AB28</f>
+        <v>0.32162312594890846</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" ref="AF28:AF46" si="28">(J28*$J$47)/$AB28</f>
+        <v>0.18368525034649799</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" ref="AG28:AG46" si="29">(K28*$K$47)/$AB28</f>
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" ref="AH28:AH46" si="30">$T28*AC28</f>
+        <v>3.2835429712104992E-2</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" ref="AI28:AI46" si="31">$T28*AD28</f>
+        <v>6.4296280585404066E-3</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" ref="AJ28:AJ46" si="32">$T28*AE28</f>
+        <v>2.5528127050521116E-2</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" ref="AK28:AK46" si="33">$T28*AF28</f>
+        <v>1.4579612067128139E-2</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" ref="AL28:AL46" si="34">$T28*AG28</f>
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" ref="AM28:AQ47" si="35">$U28*AC28</f>
+        <v>2.3547104675443374E-2</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="9"/>
+        <v>4.610846462070343E-3</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="9"/>
+        <v>1.8306855890027653E-2</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="9"/>
+        <v>1.0455403035138628E-2</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" ref="AR28:AV46" si="36">$V28*AC28</f>
+        <v>2.0713578547068786E-2</v>
+      </c>
+      <c r="AS28">
+        <f t="shared" si="10"/>
+        <v>4.056003134014604E-3</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="10"/>
+        <v>1.6103911825024263E-2</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="10"/>
+        <v>9.197258643669215E-3</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" ref="AW28:BA46" si="37">$W28*AC28</f>
+        <v>2.4428437127402974E-2</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="11"/>
+        <v>4.7834234592866341E-3</v>
+      </c>
+      <c r="AY28">
+        <f t="shared" si="11"/>
+        <v>1.8992053769410901E-2</v>
+      </c>
+      <c r="AZ28">
+        <f t="shared" si="11"/>
+        <v>1.0846732929840898E-2</v>
+      </c>
+      <c r="BA28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <f t="shared" ref="BB28:BF46" si="38">$X28*AC28</f>
+        <v>2.6592153849160586E-2</v>
+      </c>
+      <c r="BC28">
+        <f t="shared" si="12"/>
+        <v>5.2071089071983176E-3</v>
+      </c>
+      <c r="BD28">
+        <f t="shared" si="12"/>
+        <v>2.0674249978160451E-2</v>
+      </c>
+      <c r="BE28">
+        <f t="shared" si="12"/>
+        <v>1.1807468047455472E-2</v>
+      </c>
+      <c r="BF28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <f t="shared" ref="BG28:BK47" si="39">$Y28*AC28</f>
+        <v>2.818250007278789E-2</v>
+      </c>
+      <c r="BH28">
+        <f t="shared" si="13"/>
+        <v>5.5185205376195347E-3</v>
+      </c>
+      <c r="BI28">
+        <f t="shared" si="13"/>
+        <v>2.1910675412730212E-2</v>
+      </c>
+      <c r="BJ28">
+        <f t="shared" si="13"/>
+        <v>1.2513614767513786E-2</v>
+      </c>
+      <c r="BK28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <f t="shared" ref="BL28:BP46" si="40">$Z28*AC28</f>
+        <v>1.6050902038951865E-2</v>
+      </c>
+      <c r="BM28">
+        <f t="shared" si="14"/>
+        <v>3.1429870423313661E-3</v>
+      </c>
+      <c r="BN28">
+        <f t="shared" si="14"/>
+        <v>1.2478882418120903E-2</v>
+      </c>
+      <c r="BO28">
+        <f t="shared" si="14"/>
+        <v>7.1269335320780884E-3</v>
+      </c>
+      <c r="BP28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <f t="shared" ref="BQ28:BU46" si="41">$AA28*AC28</f>
+        <v>1.5824308163376162E-2</v>
+      </c>
+      <c r="BR28">
+        <f t="shared" si="15"/>
+        <v>3.0986168497354749E-3</v>
+      </c>
+      <c r="BS28">
+        <f t="shared" si="15"/>
+        <v>1.2302715476031699E-2</v>
+      </c>
+      <c r="BT28">
+        <f t="shared" si="15"/>
+        <v>7.0263211499150815E-3</v>
+      </c>
+      <c r="BU28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:73" ht="17">
+      <c r="A29" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>422</v>
+      </c>
+      <c r="M29">
+        <v>509</v>
+      </c>
+      <c r="N29">
+        <v>409</v>
+      </c>
+      <c r="O29">
+        <v>369</v>
+      </c>
+      <c r="P29">
+        <v>69</v>
+      </c>
+      <c r="Q29">
+        <v>102</v>
+      </c>
+      <c r="R29">
+        <v>857</v>
+      </c>
+      <c r="S29">
+        <v>1388</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="16"/>
+        <v>5.1294518050322112E-2</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="17"/>
+        <v>4.3113671014738265E-2</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="18"/>
+        <v>4.451942962882334E-2</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="19"/>
+        <v>4.1903247785600728E-2</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="20"/>
+        <v>4.5725646123260438E-2</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="21"/>
+        <v>5.0721034311287917E-2</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="22"/>
+        <v>4.8613080719269383E-2</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="23"/>
+        <v>5.042138913106655E-2</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="24"/>
+        <v>132.11671999999999</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="25"/>
+        <v>0.36363906097577964</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="26"/>
+        <v>6.103330449015084E-2</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="27"/>
+        <v>0.21203523672098432</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="28"/>
+        <v>0.36329239781308531</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="30"/>
+        <v>1.8652690377024311E-2</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="31"/>
+        <v>3.130673938840848E-3</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="32"/>
+        <v>1.0876245277288851E-2</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="33"/>
+        <v>1.8634908457168104E-2</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <f t="shared" si="35"/>
+        <v>1.5677814843018112E-2</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="9"/>
+        <v>2.631369810730711E-3</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="9"/>
+        <v>9.1416174395206676E-3</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="9"/>
+        <v>1.566286892146878E-2</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="36"/>
+        <v>1.6189003585402623E-2</v>
+      </c>
+      <c r="AS29">
+        <f t="shared" si="10"/>
+        <v>2.7171679042638178E-3</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="10"/>
+        <v>9.4396878000307591E-3</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="10"/>
+        <v>1.6173570339126146E-2</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="37"/>
+        <v>1.5237657676591266E-2</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="11"/>
+        <v>2.557493681224808E-3</v>
+      </c>
+      <c r="AY29">
+        <f t="shared" si="11"/>
+        <v>8.8849650635979115E-3</v>
+      </c>
+      <c r="AZ29">
+        <f t="shared" si="11"/>
+        <v>1.5223131364186746E-2</v>
+      </c>
+      <c r="BA29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <f t="shared" si="38"/>
+        <v>1.6627631018773223E-2</v>
+      </c>
+      <c r="BC29">
+        <f t="shared" si="12"/>
+        <v>2.7907872828498398E-3</v>
+      </c>
+      <c r="BD29">
+        <f t="shared" si="12"/>
+        <v>9.6954481999654857E-3</v>
+      </c>
+      <c r="BE29">
+        <f t="shared" si="12"/>
+        <v>1.6611779621671895E-2</v>
+      </c>
+      <c r="BF29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <f t="shared" si="39"/>
+        <v>1.8444149288677037E-2</v>
+      </c>
+      <c r="BH29">
+        <f t="shared" si="13"/>
+        <v>3.0956723311762239E-3</v>
+      </c>
+      <c r="BI29">
+        <f t="shared" si="13"/>
+        <v>1.0754646516927101E-2</v>
+      </c>
+      <c r="BJ29">
+        <f t="shared" si="13"/>
+        <v>1.842656617450756E-2</v>
+      </c>
+      <c r="BK29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <f t="shared" si="40"/>
+        <v>1.7677615023894897E-2</v>
+      </c>
+      <c r="BM29">
+        <f t="shared" si="14"/>
+        <v>2.9670169577434491E-3</v>
+      </c>
+      <c r="BN29">
+        <f t="shared" si="14"/>
+        <v>1.0307686078046602E-2</v>
+      </c>
+      <c r="BO29">
+        <f t="shared" si="14"/>
+        <v>1.7660762659584439E-2</v>
+      </c>
+      <c r="BP29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <f t="shared" si="41"/>
+        <v>1.8335186596715423E-2</v>
+      </c>
+      <c r="BR29">
+        <f t="shared" si="15"/>
+        <v>3.0773839956527668E-3</v>
+      </c>
+      <c r="BS29">
+        <f t="shared" si="15"/>
+        <v>1.0691111180206561E-2</v>
+      </c>
+      <c r="BT29">
+        <f t="shared" si="15"/>
+        <v>1.8317707358491805E-2</v>
+      </c>
+      <c r="BU29">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:73" ht="17">
+      <c r="A30" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>372</v>
+      </c>
+      <c r="M30">
+        <v>777</v>
+      </c>
+      <c r="N30">
+        <v>475</v>
+      </c>
+      <c r="O30">
+        <v>493</v>
+      </c>
+      <c r="P30">
+        <v>87</v>
+      </c>
+      <c r="Q30">
+        <v>106</v>
+      </c>
+      <c r="R30">
+        <v>1136</v>
+      </c>
+      <c r="S30">
+        <v>1934</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="16"/>
+        <v>4.5216968518293425E-2</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="17"/>
+        <v>6.5813992884973749E-2</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="18"/>
+        <v>5.1703494067704366E-2</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="19"/>
+        <v>5.5984555984555984E-2</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="20"/>
+        <v>5.7654075546719682E-2</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="21"/>
+        <v>5.271009448035803E-2</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="22"/>
+        <v>6.4439276192637132E-2</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="23"/>
+        <v>7.0255739610578322E-2</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="24"/>
+        <v>133.10108</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="25"/>
+        <v>0.36094973834923055</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="26"/>
+        <v>5.3009186702316774E-2</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="27"/>
+        <v>0.10523355633177432</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="28"/>
+        <v>0.48080751861667842</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="30"/>
+        <v>1.6321052955623406E-2</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="31"/>
+        <v>2.3969147262989962E-3</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="32"/>
+        <v>4.7583424037218975E-3</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="33"/>
+        <v>2.1740658432649128E-2</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="35"/>
+        <v>2.3755543511549397E-2</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="9"/>
+        <v>3.4887462364645212E-3</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="9"/>
+        <v>6.9258405276798798E-3</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="9"/>
+        <v>3.1643862609279955E-2</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="36"/>
+        <v>1.8662362655478885E-2</v>
+      </c>
+      <c r="AS30">
+        <f t="shared" si="10"/>
+        <v>2.7407601701970683E-3</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="10"/>
+        <v>5.4409425555233268E-3</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="10"/>
+        <v>2.4859428686505088E-2</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="37"/>
+        <v>2.020761083422333E-2</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="11"/>
+        <v>2.9676957806316342E-3</v>
+      </c>
+      <c r="AY30">
+        <f t="shared" si="11"/>
+        <v>5.8914539259101451E-3</v>
+      </c>
+      <c r="AZ30">
+        <f t="shared" si="11"/>
+        <v>2.6917795443790877E-2</v>
+      </c>
+      <c r="BA30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <f t="shared" si="38"/>
+        <v>2.081022348335524E-2</v>
+      </c>
+      <c r="BC30">
+        <f t="shared" si="12"/>
+        <v>3.0561956548055395E-3</v>
+      </c>
+      <c r="BD30">
+        <f t="shared" si="12"/>
+        <v>6.0671434068020978E-3</v>
+      </c>
+      <c r="BE30">
+        <f t="shared" si="12"/>
+        <v>2.7720513001756809E-2</v>
+      </c>
+      <c r="BF30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <f t="shared" si="39"/>
+        <v>1.9025694811048453E-2</v>
+      </c>
+      <c r="BH30">
+        <f t="shared" si="13"/>
+        <v>2.7941192394060556E-3</v>
+      </c>
+      <c r="BI30">
+        <f t="shared" si="13"/>
+        <v>5.5468706967519033E-3</v>
+      </c>
+      <c r="BJ30">
+        <f t="shared" si="13"/>
+        <v>2.5343409733151624E-2</v>
+      </c>
+      <c r="BK30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL30">
+        <f t="shared" si="40"/>
+        <v>2.3259339881146174E-2</v>
+      </c>
+      <c r="BM30">
+        <f t="shared" si="14"/>
+        <v>3.4158736226576583E-3</v>
+      </c>
+      <c r="BN30">
+        <f t="shared" si="14"/>
+        <v>6.7811742011966436E-3</v>
+      </c>
+      <c r="BO30">
+        <f t="shared" si="14"/>
+        <v>3.098288848763666E-2</v>
+      </c>
+      <c r="BP30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <f t="shared" si="41"/>
+        <v>2.5358790829969918E-2</v>
+      </c>
+      <c r="BR30">
+        <f t="shared" si="15"/>
+        <v>3.7241996179264982E-3</v>
+      </c>
+      <c r="BS30">
+        <f t="shared" si="15"/>
+        <v>7.3932613319402625E-3</v>
+      </c>
+      <c r="BT30">
+        <f t="shared" si="15"/>
+        <v>3.3779487830741646E-2</v>
+      </c>
+      <c r="BU30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:73" ht="17">
+      <c r="A31" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>175</v>
+      </c>
+      <c r="M31">
+        <v>172</v>
+      </c>
+      <c r="N31">
+        <v>159</v>
+      </c>
+      <c r="O31">
+        <v>120</v>
+      </c>
+      <c r="P31">
+        <v>29</v>
+      </c>
+      <c r="Q31">
+        <v>62</v>
+      </c>
+      <c r="R31">
+        <v>239</v>
+      </c>
+      <c r="S31">
+        <v>335</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="16"/>
+        <v>2.1271423362100399E-2</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="17"/>
+        <v>1.4568863289852617E-2</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="18"/>
+        <v>1.7307064330031565E-2</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="19"/>
+        <v>1.3627072450601862E-2</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="20"/>
+        <v>1.9218025182239893E-2</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="21"/>
+        <v>3.0830432620586774E-2</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="22"/>
+        <v>1.3557206875035453E-2</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="23"/>
+        <v>1.2169427492008137E-2</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="24"/>
+        <v>121.15738</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="25"/>
+        <v>0.2973991349103125</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="26"/>
+        <v>5.8234834724884284E-2</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="27"/>
+        <v>0.11560748507437187</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="28"/>
+        <v>0.26410277277372624</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="29"/>
+        <v>0.26465577251670508</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="30"/>
+        <v>6.3261029061996701E-3</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="31"/>
+        <v>1.238737823854959E-3</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="32"/>
+        <v>2.4591357588446671E-3</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="33"/>
+        <v>5.6178418907745333E-3</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="34"/>
+        <v>5.6296049824265696E-3</v>
+      </c>
+      <c r="AM31">
+        <f t="shared" si="35"/>
+        <v>4.3327673390287777E-3</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="9"/>
+        <v>8.4841534581400107E-4</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="9"/>
+        <v>1.6842696453322006E-3</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="9"/>
+        <v>3.8476771910114275E-3</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="9"/>
+        <v>3.8557337686662098E-3</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" si="36"/>
+        <v>5.1471059595885145E-3</v>
+      </c>
+      <c r="AS31">
+        <f t="shared" si="10"/>
+        <v>1.0078740308323284E-3</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="10"/>
+        <v>2.0008261812153177E-3</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="10"/>
+        <v>4.5708436781345891E-3</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="10"/>
+        <v>4.5804144802608143E-3</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="37"/>
+        <v>4.0526795581691463E-3</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="11"/>
+        <v>7.9357031194482333E-4</v>
+      </c>
+      <c r="AY31">
+        <f t="shared" si="11"/>
+        <v>1.5753915749403388E-3</v>
+      </c>
+      <c r="AZ31">
+        <f t="shared" si="11"/>
+        <v>3.5989476189924085E-3</v>
+      </c>
+      <c r="BA31">
+        <f t="shared" si="11"/>
+        <v>3.6064833865551453E-3</v>
+      </c>
+      <c r="BB31">
+        <f t="shared" si="38"/>
+        <v>5.7154240638827448E-3</v>
+      </c>
+      <c r="BC31">
+        <f t="shared" si="12"/>
+        <v>1.1191585202264044E-3</v>
+      </c>
+      <c r="BD31">
+        <f t="shared" si="12"/>
+        <v>2.2217475594147012E-3</v>
+      </c>
+      <c r="BE31">
+        <f t="shared" si="12"/>
+        <v>5.0755337378648509E-3</v>
+      </c>
+      <c r="BF31">
+        <f t="shared" si="12"/>
+        <v>5.0861613008511908E-3</v>
+      </c>
+      <c r="BG31">
+        <f t="shared" si="39"/>
+        <v>9.1689439902731852E-3</v>
+      </c>
+      <c r="BH31">
+        <f t="shared" si="13"/>
+        <v>1.7954051481565518E-3</v>
+      </c>
+      <c r="BI31">
+        <f t="shared" si="13"/>
+        <v>3.5642287790209129E-3</v>
+      </c>
+      <c r="BJ31">
+        <f t="shared" si="13"/>
+        <v>8.1424027409105065E-3</v>
+      </c>
+      <c r="BK31">
+        <f t="shared" si="13"/>
+        <v>8.1594519622256168E-3</v>
+      </c>
+      <c r="BL31">
+        <f t="shared" si="40"/>
+        <v>4.0319015964356848E-3</v>
+      </c>
+      <c r="BM31">
+        <f t="shared" si="14"/>
+        <v>7.8950170169875451E-4</v>
+      </c>
+      <c r="BN31">
+        <f t="shared" si="14"/>
+        <v>1.5673145914558327E-3</v>
+      </c>
+      <c r="BO31">
+        <f t="shared" si="14"/>
+        <v>3.5804959267638874E-3</v>
+      </c>
+      <c r="BP31">
+        <f t="shared" si="14"/>
+        <v>3.5879930586812927E-3</v>
+      </c>
+      <c r="BQ31">
+        <f t="shared" si="41"/>
+        <v>3.6191772084769938E-3</v>
+      </c>
+      <c r="BR31">
+        <f t="shared" si="15"/>
+        <v>7.0868459869355698E-4</v>
+      </c>
+      <c r="BS31">
+        <f t="shared" si="15"/>
+        <v>1.4068769071459814E-3</v>
+      </c>
+      <c r="BT31">
+        <f t="shared" si="15"/>
+        <v>3.2139795437081623E-3</v>
+      </c>
+      <c r="BU31">
+        <f t="shared" si="15"/>
+        <v>3.2207092339834424E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:73" ht="17">
+      <c r="A32" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>326</v>
+      </c>
+      <c r="M32">
+        <v>449</v>
+      </c>
+      <c r="N32">
+        <v>323</v>
+      </c>
+      <c r="O32">
+        <v>279</v>
+      </c>
+      <c r="P32">
+        <v>49</v>
+      </c>
+      <c r="Q32">
+        <v>75</v>
+      </c>
+      <c r="R32">
+        <v>469</v>
+      </c>
+      <c r="S32">
+        <v>819</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="16"/>
+        <v>3.962562294882703E-2</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="17"/>
+        <v>3.8031509401998981E-2</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="18"/>
+        <v>3.515837596603897E-2</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="19"/>
+        <v>3.1682943447649332E-2</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="20"/>
+        <v>3.2471835652750164E-2</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="21"/>
+        <v>3.7294878170064646E-2</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="22"/>
+        <v>2.6603891315446139E-2</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="23"/>
+        <v>2.9751525719267653E-2</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="24"/>
+        <v>146.14330000000001</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="25"/>
+        <v>0.41092201968889436</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="26"/>
+        <v>6.8969292468419693E-2</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="27"/>
+        <v>0.19168446312626031</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="28"/>
+        <v>0.32842422471642557</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="30"/>
+        <v>1.6283041013562604E-2</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="31"/>
+        <v>2.7329511784009745E-3</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="32"/>
+        <v>7.5956162609895289E-3</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="33"/>
+        <v>1.3014014495873919E-2</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="35"/>
+        <v>1.5627984655286597E-2</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="9"/>
+        <v>2.623006294961921E-3</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="9"/>
+        <v>7.2900494616034957E-3</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="9"/>
+        <v>1.2490468990146966E-2</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <f t="shared" si="36"/>
+        <v>1.4447350860946217E-2</v>
+      </c>
+      <c r="AS32">
+        <f t="shared" si="10"/>
+        <v>2.4248483147163995E-3</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="10"/>
+        <v>6.7393144214413937E-3</v>
+      </c>
+      <c r="AU32">
+        <f t="shared" si="10"/>
+        <v>1.1546862368934959E-2</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" si="37"/>
+        <v>1.3019219111197085E-2</v>
+      </c>
+      <c r="AX32">
+        <f t="shared" si="11"/>
+        <v>2.185150192901328E-3</v>
+      </c>
+      <c r="AY32">
+        <f t="shared" si="11"/>
+        <v>6.0731280050223295E-3</v>
+      </c>
+      <c r="AZ32">
+        <f t="shared" si="11"/>
+        <v>1.0405446138528587E-2</v>
+      </c>
+      <c r="BA32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <f t="shared" si="38"/>
+        <v>1.3343392289433945E-2</v>
+      </c>
+      <c r="BC32">
+        <f t="shared" si="12"/>
+        <v>2.2395595301209839E-3</v>
+      </c>
+      <c r="BD32">
+        <f t="shared" si="12"/>
+        <v>6.2243463838215739E-3</v>
+      </c>
+      <c r="BE32">
+        <f t="shared" si="12"/>
+        <v>1.066453744937366E-2</v>
+      </c>
+      <c r="BF32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <f t="shared" si="39"/>
+        <v>1.5325286661694221E-2</v>
+      </c>
+      <c r="BH32">
+        <f t="shared" si="13"/>
+        <v>2.5722013600852698E-3</v>
+      </c>
+      <c r="BI32">
+        <f t="shared" si="13"/>
+        <v>7.1488486993881275E-3</v>
+      </c>
+      <c r="BJ32">
+        <f t="shared" si="13"/>
+        <v>1.2248541448897025E-2</v>
+      </c>
+      <c r="BK32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <f t="shared" si="40"/>
+        <v>1.0932124750926964E-2</v>
+      </c>
+      <c r="BM32">
+        <f t="shared" si="14"/>
+        <v>1.8348515609330554E-3</v>
+      </c>
+      <c r="BN32">
+        <f t="shared" si="14"/>
+        <v>5.0995526238706724E-3</v>
+      </c>
+      <c r="BO32">
+        <f t="shared" si="14"/>
+        <v>8.7373623797154451E-3</v>
+      </c>
+      <c r="BP32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <f t="shared" si="41"/>
+        <v>1.2225557037387549E-2</v>
+      </c>
+      <c r="BR32">
+        <f t="shared" si="15"/>
+        <v>2.0519416787138814E-3</v>
+      </c>
+      <c r="BS32">
+        <f t="shared" si="15"/>
+        <v>5.7029052346849454E-3</v>
+      </c>
+      <c r="BT32">
+        <f t="shared" si="15"/>
+        <v>9.7711217684812741E-3</v>
+      </c>
+      <c r="BU32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:73" ht="17">
+      <c r="A33" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>428</v>
+      </c>
+      <c r="M33">
+        <v>1240</v>
+      </c>
+      <c r="N33">
+        <v>565</v>
+      </c>
+      <c r="O33">
+        <v>678</v>
+      </c>
+      <c r="P33">
+        <v>77</v>
+      </c>
+      <c r="Q33">
+        <v>132</v>
+      </c>
+      <c r="R33">
+        <v>1613</v>
+      </c>
+      <c r="S33">
+        <v>2307</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="16"/>
+        <v>5.2023823994165552E-2</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="17"/>
+        <v>0.10503133999661189</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="18"/>
+        <v>6.1499945575269402E-2</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="19"/>
+        <v>7.6992959345900516E-2</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="20"/>
+        <v>5.1027170311464545E-2</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="21"/>
+        <v>6.5638985579313774E-2</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="22"/>
+        <v>9.1496965227749735E-2</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="23"/>
+        <v>8.3805579773321703E-2</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="24"/>
+        <v>147.12765999999999</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="25"/>
+        <v>0.40817273923883518</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="26"/>
+        <v>6.1657067066790847E-2</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="27"/>
+        <v>9.5200997555456274E-2</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="28"/>
+        <v>0.43496919613891777</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="30"/>
+        <v>2.1234706745377592E-2</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="31"/>
+        <v>3.2076364050791883E-3</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="32"/>
+        <v>4.9527199408940419E-3</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="33"/>
+        <v>2.2628760902814734E-2</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <f t="shared" si="35"/>
+        <v>4.2870929752342503E-2</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="9"/>
+        <v>6.4759243742860111E-3</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="9"/>
+        <v>9.9990883422637448E-3</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="9"/>
+        <v>4.5685397527719634E-2</v>
+      </c>
+      <c r="AQ33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <f t="shared" si="36"/>
+        <v>2.5102601248496993E-2</v>
+      </c>
+      <c r="AS33">
+        <f t="shared" si="10"/>
+        <v>3.7919062689383723E-3</v>
+      </c>
+      <c r="AT33">
+        <f t="shared" si="10"/>
+        <v>5.8548561683719165E-3</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="10"/>
+        <v>2.6750581889462124E-2</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <f t="shared" si="37"/>
+        <v>3.1426427118320492E-2</v>
+      </c>
+      <c r="AX33">
+        <f t="shared" si="11"/>
+        <v>4.7471600580608888E-3</v>
+      </c>
+      <c r="AY33">
+        <f t="shared" si="11"/>
+        <v>7.3298065344764192E-3</v>
+      </c>
+      <c r="AZ33">
+        <f t="shared" si="11"/>
+        <v>3.3489565635042726E-2</v>
+      </c>
+      <c r="BA33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <f t="shared" si="38"/>
+        <v>2.0827899881637049E-2</v>
+      </c>
+      <c r="BC33">
+        <f t="shared" si="12"/>
+        <v>3.1461856621225284E-3</v>
+      </c>
+      <c r="BD33">
+        <f t="shared" si="12"/>
+        <v>4.8578375160835867E-3</v>
+      </c>
+      <c r="BE33">
+        <f t="shared" si="12"/>
+        <v>2.2195247251621385E-2</v>
+      </c>
+      <c r="BF33">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <f t="shared" si="39"/>
+        <v>2.6792044544766903E-2</v>
+      </c>
+      <c r="BH33">
+        <f t="shared" si="13"/>
+        <v>4.0471073360598669E-3</v>
+      </c>
+      <c r="BI33">
+        <f t="shared" si="13"/>
+        <v>6.2488969056788803E-3</v>
+      </c>
+      <c r="BJ33">
+        <f t="shared" si="13"/>
+        <v>2.8550936792808127E-2</v>
+      </c>
+      <c r="BK33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <f t="shared" si="40"/>
+        <v>3.7346566929051063E-2</v>
+      </c>
+      <c r="BM33">
+        <f t="shared" si="14"/>
+        <v>5.6414345214551957E-3</v>
+      </c>
+      <c r="BN33">
+        <f t="shared" si="14"/>
+        <v>8.710602362978671E-3</v>
+      </c>
+      <c r="BO33">
+        <f t="shared" si="14"/>
+        <v>3.9798361414264814E-2</v>
+      </c>
+      <c r="BP33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <f t="shared" si="41"/>
+        <v>3.4207153059575439E-2</v>
+      </c>
+      <c r="BR33">
+        <f t="shared" si="15"/>
+        <v>5.1672062526549869E-3</v>
+      </c>
+      <c r="BS33">
+        <f t="shared" si="15"/>
+        <v>7.978374795133596E-3</v>
+      </c>
+      <c r="BT33">
+        <f t="shared" si="15"/>
+        <v>3.6452845665957689E-2</v>
+      </c>
+      <c r="BU33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:73" ht="17">
+      <c r="A34" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>429</v>
+      </c>
+      <c r="M34">
+        <v>398</v>
+      </c>
+      <c r="N34">
+        <v>292</v>
+      </c>
+      <c r="O34">
+        <v>319</v>
+      </c>
+      <c r="P34">
+        <v>61</v>
+      </c>
+      <c r="Q34">
+        <v>94</v>
+      </c>
+      <c r="R34">
+        <v>527</v>
+      </c>
+      <c r="S34">
+        <v>895</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="16"/>
+        <v>5.2145374984806127E-2</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="17"/>
+        <v>3.3711672031170592E-2</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="18"/>
+        <v>3.1784042668988786E-2</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="19"/>
+        <v>3.6225300931183285E-2</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="20"/>
+        <v>4.0424121935056331E-2</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="21"/>
+        <v>4.6742913973147684E-2</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="22"/>
+        <v>2.9893924783027964E-2</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="23"/>
+        <v>3.2512351060738159E-2</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="24"/>
+        <v>75.065799999999996</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="25"/>
+        <v>0.32000458264615844</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="26"/>
+        <v>6.7137098385682964E-2</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="27"/>
+        <v>0.18659229635866134</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="28"/>
+        <v>0.42626602260949731</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="30"/>
+        <v>1.6686758958940315E-2</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="31"/>
+        <v>3.50088917071326E-3</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="32"/>
+        <v>9.7299252628984707E-3</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="33"/>
+        <v>2.2227801592254084E-2</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" si="35"/>
+        <v>1.0787889538638918E-2</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="9"/>
+        <v>2.2633038419025767E-3</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="9"/>
+        <v>6.2903382983861781E-3</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="9"/>
+        <v>1.4370140352242922E-2</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" si="36"/>
+        <v>1.0171039309097449E-2</v>
+      </c>
+      <c r="AS34">
+        <f t="shared" si="10"/>
+        <v>2.1338883997626453E-3</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="10"/>
+        <v>5.9306575091682932E-3</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="10"/>
+        <v>1.3548457450960401E-2</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="37"/>
+        <v>1.1592262305714801E-2</v>
+      </c>
+      <c r="AX34">
+        <f t="shared" si="11"/>
+        <v>2.4320615926678251E-3</v>
+      </c>
+      <c r="AY34">
+        <f t="shared" si="11"/>
+        <v>6.7593620870330419E-3</v>
+      </c>
+      <c r="AZ34">
+        <f t="shared" si="11"/>
+        <v>1.5441614945767618E-2</v>
+      </c>
+      <c r="BA34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <f t="shared" si="38"/>
+        <v>1.2935904268665119E-2</v>
+      </c>
+      <c r="BC34">
+        <f t="shared" si="12"/>
+        <v>2.7139582515087217E-3</v>
+      </c>
+      <c r="BD34">
+        <f t="shared" si="12"/>
+        <v>7.5428297401446938E-3</v>
+      </c>
+      <c r="BE34">
+        <f t="shared" si="12"/>
+        <v>1.72314296747378E-2</v>
+      </c>
+      <c r="BF34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <f t="shared" si="39"/>
+        <v>1.4957946677642412E-2</v>
+      </c>
+      <c r="BH34">
+        <f t="shared" si="13"/>
+        <v>3.138183614248731E-3</v>
+      </c>
+      <c r="BI34">
+        <f t="shared" si="13"/>
+        <v>8.7218676567449843E-3</v>
+      </c>
+      <c r="BJ34">
+        <f t="shared" si="13"/>
+        <v>1.9924916024511557E-2</v>
+      </c>
+      <c r="BK34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <f t="shared" si="40"/>
+        <v>9.5661929238485162E-3</v>
+      </c>
+      <c r="BM34">
+        <f t="shared" si="14"/>
+        <v>2.0069913692923546E-3</v>
+      </c>
+      <c r="BN34">
+        <f t="shared" si="14"/>
+        <v>5.5779760724382847E-3</v>
+      </c>
+      <c r="BO34">
+        <f t="shared" si="14"/>
+        <v>1.274276441744881E-2</v>
+      </c>
+      <c r="BP34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <f t="shared" si="41"/>
+        <v>1.0404101332036902E-2</v>
+      </c>
+      <c r="BR34">
+        <f t="shared" si="15"/>
+        <v>2.1827849119146416E-3</v>
+      </c>
+      <c r="BS34">
+        <f t="shared" si="15"/>
+        <v>6.0665542444420925E-3</v>
+      </c>
+      <c r="BT34">
+        <f t="shared" si="15"/>
+        <v>1.3858910572344526E-2</v>
+      </c>
+      <c r="BU34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:73" ht="17">
+      <c r="A35" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>144</v>
+      </c>
+      <c r="M35">
+        <v>130</v>
+      </c>
+      <c r="N35">
+        <v>301</v>
+      </c>
+      <c r="O35">
+        <v>264</v>
+      </c>
+      <c r="P35">
+        <v>46</v>
+      </c>
+      <c r="Q35">
+        <v>56</v>
+      </c>
+      <c r="R35">
+        <v>441</v>
+      </c>
+      <c r="S35">
+        <v>698</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="16"/>
+        <v>1.7503342652242616E-2</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="17"/>
+        <v>1.1011350160935117E-2</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="18"/>
+        <v>3.2763687819745292E-2</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="19"/>
+        <v>2.9979559391324098E-2</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="20"/>
+        <v>3.0483764082173626E-2</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="21"/>
+        <v>2.7846842366981601E-2</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="22"/>
+        <v>2.5015599296613535E-2</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="23"/>
+        <v>2.5356001162452776E-2</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="24"/>
+        <v>155.15376000000001</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="25"/>
+        <v>0.46446956876842688</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="26"/>
+        <v>5.84675485789065E-2</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="27"/>
+        <v>0.27082875722766886</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="28"/>
+        <v>0.20623412542499775</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="30"/>
+        <v>8.1297700136931401E-3</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="31"/>
+        <v>1.0233775368132412E-3</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="32"/>
+        <v>4.7404085378369171E-3</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="33"/>
+        <v>3.6097865638993164E-3</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="35"/>
+        <v>5.1144370608076821E-3</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="9"/>
+        <v>6.4380665045382385E-4</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="9"/>
+        <v>2.9821902794847492E-3</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="9"/>
+        <v>2.2709161701888621E-3</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <f t="shared" si="36"/>
+        <v>1.5217735952900456E-2</v>
+      </c>
+      <c r="AS35">
+        <f t="shared" si="10"/>
+        <v>1.915612509225085E-3</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="10"/>
+        <v>8.8733488544169292E-3</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="10"/>
+        <v>6.7569905032028215E-3</v>
+      </c>
+      <c r="AV35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <f t="shared" si="37"/>
+        <v>1.3924593022355746E-2</v>
+      </c>
+      <c r="AX35">
+        <f t="shared" si="11"/>
+        <v>1.7528313450864543E-3</v>
+      </c>
+      <c r="AY35">
+        <f t="shared" si="11"/>
+        <v>8.1193268121853932E-3</v>
+      </c>
+      <c r="AZ35">
+        <f t="shared" si="11"/>
+        <v>6.1828082116965029E-3</v>
+      </c>
+      <c r="BA35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <f t="shared" si="38"/>
+        <v>1.4158780757685644E-2</v>
+      </c>
+      <c r="BC35">
+        <f t="shared" si="12"/>
+        <v>1.7823109573424116E-3</v>
+      </c>
+      <c r="BD35">
+        <f t="shared" si="12"/>
+        <v>8.2558799419965318E-3</v>
+      </c>
+      <c r="BE35">
+        <f t="shared" si="12"/>
+        <v>6.2867924251490369E-3</v>
+      </c>
+      <c r="BF35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <f t="shared" si="39"/>
+        <v>1.2934010865754304E-2</v>
+      </c>
+      <c r="BH35">
+        <f t="shared" si="13"/>
+        <v>1.6281366088606484E-3</v>
+      </c>
+      <c r="BI35">
+        <f t="shared" si="13"/>
+        <v>7.5417257109644236E-3</v>
+      </c>
+      <c r="BJ35">
+        <f t="shared" si="13"/>
+        <v>5.7429691814022245E-3</v>
+      </c>
+      <c r="BK35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <f t="shared" si="40"/>
+        <v>1.1618984617781851E-2</v>
+      </c>
+      <c r="BM35">
+        <f t="shared" si="14"/>
+        <v>1.462600767105211E-3</v>
+      </c>
+      <c r="BN35">
+        <f t="shared" si="14"/>
+        <v>6.7749436688071913E-3</v>
+      </c>
+      <c r="BO35">
+        <f t="shared" si="14"/>
+        <v>5.159070242919281E-3</v>
+      </c>
+      <c r="BP35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <f t="shared" si="41"/>
+        <v>1.1777090925616171E-2</v>
+      </c>
+      <c r="BR35">
+        <f t="shared" si="15"/>
+        <v>1.4825032297325173E-3</v>
+      </c>
+      <c r="BS35">
+        <f t="shared" si="15"/>
+        <v>6.8671342830904127E-3</v>
+      </c>
+      <c r="BT35">
+        <f t="shared" si="15"/>
+        <v>5.2292727240136746E-3</v>
+      </c>
+      <c r="BU35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:73" ht="17">
+      <c r="A36" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>931</v>
+      </c>
+      <c r="M36">
+        <v>2052</v>
+      </c>
+      <c r="N36">
+        <v>782</v>
+      </c>
+      <c r="O36">
+        <v>750</v>
+      </c>
+      <c r="P36">
+        <v>150</v>
+      </c>
+      <c r="Q36">
+        <v>188</v>
+      </c>
+      <c r="R36">
+        <v>1944</v>
+      </c>
+      <c r="S36">
+        <v>3005</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="16"/>
+        <v>0.11316397228637413</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="17"/>
+        <v>0.17380992715568355</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="18"/>
+        <v>8.5120278654620657E-2</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="19"/>
+        <v>8.5169202816261641E-2</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="20"/>
+        <v>9.9403578528827044E-2</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="21"/>
+        <v>9.3485827946295369E-2</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="22"/>
+        <v>0.11027284587894946</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="23"/>
+        <v>0.10916158093577448</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="24"/>
+        <v>131.17211999999998</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="25"/>
+        <v>0.54938656171753575</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="26"/>
+        <v>9.9893330991372264E-2</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="27"/>
+        <v>0.1067810751248055</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="28"/>
+        <v>0.2439390321662866</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="30"/>
+        <v>6.2170765644709587E-2</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="31"/>
+        <v>1.1304326139901249E-2</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="32"/>
+        <v>1.2083770626132724E-2</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="33"/>
+        <v>2.7605109875630585E-2</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="35"/>
+        <v>9.548883827243633E-2</v>
+      </c>
+      <c r="AN36">
+        <f t="shared" si="9"/>
+        <v>1.7362452582948999E-2</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="9"/>
+        <v>1.8559610889048016E-2</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="9"/>
+        <v>4.2399025411250221E-2</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="36"/>
+        <v>4.6763937222500593E-2</v>
+      </c>
+      <c r="AS36">
+        <f t="shared" si="10"/>
+        <v>8.5029481697238615E-3</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="10"/>
+        <v>9.0892348696634262E-3</v>
+      </c>
+      <c r="AU36">
+        <f t="shared" si="10"/>
+        <v>2.0764158392732785E-2</v>
+      </c>
+      <c r="AV36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <f t="shared" si="37"/>
+        <v>4.6790815499449447E-2</v>
+      </c>
+      <c r="AX36">
+        <f t="shared" si="11"/>
+        <v>8.5078353671961381E-3</v>
+      </c>
+      <c r="AY36">
+        <f t="shared" si="11"/>
+        <v>9.0944590442430303E-3</v>
+      </c>
+      <c r="AZ36">
+        <f t="shared" si="11"/>
+        <v>2.0776092905373036E-2</v>
+      </c>
+      <c r="BA36">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <f t="shared" si="38"/>
+        <v>5.4610990230371352E-2</v>
+      </c>
+      <c r="BC36">
+        <f t="shared" si="12"/>
+        <v>9.9297545717069845E-3</v>
+      </c>
+      <c r="BD36">
+        <f t="shared" si="12"/>
+        <v>1.0614420986561185E-2</v>
+      </c>
+      <c r="BE36">
+        <f t="shared" si="12"/>
+        <v>2.4248412740187537E-2</v>
+      </c>
+      <c r="BF36">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <f t="shared" si="39"/>
+        <v>5.1359857584732327E-2</v>
+      </c>
+      <c r="BH36">
+        <f t="shared" si="13"/>
+        <v>9.338610754041762E-3</v>
+      </c>
+      <c r="BI36">
+        <f t="shared" si="13"/>
+        <v>9.9825172170380071E-3</v>
+      </c>
+      <c r="BJ36">
+        <f t="shared" si="13"/>
+        <v>2.280484239048328E-2</v>
+      </c>
+      <c r="BK36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <f t="shared" si="40"/>
+        <v>6.0582419648243777E-2</v>
+      </c>
+      <c r="BM36">
+        <f t="shared" si="14"/>
+        <v>1.101552189274648E-2</v>
+      </c>
+      <c r="BN36">
+        <f t="shared" si="14"/>
+        <v>1.1775053040026202E-2</v>
+      </c>
+      <c r="BO36">
+        <f t="shared" si="14"/>
+        <v>2.6899851297933017E-2</v>
+      </c>
+      <c r="BP36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <f t="shared" si="41"/>
+        <v>5.9971905621955639E-2</v>
+      </c>
+      <c r="BR36">
+        <f t="shared" si="15"/>
+        <v>1.0904513935958792E-2</v>
+      </c>
+      <c r="BS36">
+        <f t="shared" si="15"/>
+        <v>1.1656390974645471E-2</v>
+      </c>
+      <c r="BT36">
+        <f t="shared" si="15"/>
+        <v>2.662877040321459E-2</v>
+      </c>
+      <c r="BU36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:73" ht="17">
+      <c r="A37" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>13</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="24"/>
+        <v>131.17211999999998</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="25"/>
+        <v>0.54938656171753575</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="26"/>
+        <v>9.9893330991372264E-2</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="27"/>
+        <v>0.1067810751248055</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="28"/>
+        <v>0.2439390321662866</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BK37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL37">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BM37">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BP37">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BR37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BS37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BT37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BU37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:73" ht="17">
+      <c r="A38" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>594</v>
+      </c>
+      <c r="M38">
+        <v>872</v>
+      </c>
+      <c r="N38">
+        <v>1119</v>
+      </c>
+      <c r="O38">
+        <v>1023</v>
+      </c>
+      <c r="P38">
+        <v>139</v>
+      </c>
+      <c r="Q38">
+        <v>172</v>
+      </c>
+      <c r="R38">
+        <v>2184</v>
+      </c>
+      <c r="S38">
+        <v>3318</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="16"/>
+        <v>7.2201288440500791E-2</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="17"/>
+        <v>7.3860748771810938E-2</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="18"/>
+        <v>0.12180254707739196</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="19"/>
+        <v>0.11617079264138087</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="20"/>
+        <v>9.2113982770046385E-2</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="21"/>
+        <v>8.5529587270014917E-2</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="22"/>
+        <v>0.12388677746894322</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="23"/>
+        <v>0.12053182214472537</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="24"/>
+        <v>146.18675999999999</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="25"/>
+        <v>0.49295982755209844</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="26"/>
+        <v>9.6528303931217863E-2</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="27"/>
+        <v>0.19162747707111097</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="28"/>
+        <v>0.21888439144557278</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="30"/>
+        <v>3.5592334698668592E-2</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="31"/>
+        <v>6.9694679148101877E-3</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="32"/>
+        <v>1.3835750745136734E-2</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="33"/>
+        <v>1.5803735081885286E-2</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="35"/>
+        <v>3.6410381977420789E-2</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" si="9"/>
+        <v>7.1296528060326931E-3</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="9"/>
+        <v>1.4153748941725289E-2</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="9"/>
+        <v>1.6166965046632176E-2</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <f t="shared" si="36"/>
+        <v>6.0043762602677492E-2</v>
+      </c>
+      <c r="AS38">
+        <f t="shared" si="10"/>
+        <v>1.1757393283882964E-2</v>
+      </c>
+      <c r="AT38">
+        <f t="shared" si="10"/>
+        <v>2.3340714797275845E-2</v>
+      </c>
+      <c r="AU38">
+        <f t="shared" si="10"/>
+        <v>2.6660676393555672E-2</v>
+      </c>
+      <c r="AV38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <f t="shared" si="37"/>
+        <v>5.7267533907085701E-2</v>
+      </c>
+      <c r="AX38">
+        <f t="shared" si="11"/>
+        <v>1.1213769580017701E-2</v>
+      </c>
+      <c r="AY38">
+        <f t="shared" si="11"/>
+        <v>2.2261515903218999E-2</v>
+      </c>
+      <c r="AZ38">
+        <f t="shared" si="11"/>
+        <v>2.5427973251058479E-2</v>
+      </c>
+      <c r="BA38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <f t="shared" si="38"/>
+        <v>4.5408493061459033E-2</v>
+      </c>
+      <c r="BC38">
+        <f t="shared" si="12"/>
+        <v>8.8916065251420026E-3</v>
+      </c>
+      <c r="BD38">
+        <f t="shared" si="12"/>
+        <v>1.7651570121195774E-2</v>
+      </c>
+      <c r="BE38">
+        <f t="shared" si="12"/>
+        <v>2.0162313062249578E-2</v>
+      </c>
+      <c r="BF38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <f t="shared" si="39"/>
+        <v>4.2162650591228708E-2</v>
+      </c>
+      <c r="BH38">
+        <f t="shared" si="13"/>
+        <v>8.2560259951116217E-3</v>
+      </c>
+      <c r="BI38">
+        <f t="shared" si="13"/>
+        <v>1.6389819023486369E-2</v>
+      </c>
+      <c r="BJ38">
+        <f t="shared" si="13"/>
+        <v>1.8721091660188226E-2</v>
+      </c>
+      <c r="BK38">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL38">
+        <f t="shared" si="40"/>
+        <v>6.1071204457075444E-2</v>
+      </c>
+      <c r="BM38">
+        <f t="shared" si="14"/>
+        <v>1.1958580508581304E-2</v>
+      </c>
+      <c r="BN38">
+        <f t="shared" si="14"/>
+        <v>2.3740110608843745E-2</v>
+      </c>
+      <c r="BO38">
+        <f t="shared" si="14"/>
+        <v>2.7116881894442734E-2</v>
+      </c>
+      <c r="BP38">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <f t="shared" si="41"/>
+        <v>5.9417346259004016E-2</v>
+      </c>
+      <c r="BR38">
+        <f t="shared" si="15"/>
+        <v>1.1634732361369545E-2</v>
+      </c>
+      <c r="BS38">
+        <f t="shared" si="15"/>
+        <v>2.3097208984377584E-2</v>
+      </c>
+      <c r="BT38">
+        <f t="shared" si="15"/>
+        <v>2.6382534539974224E-2</v>
+      </c>
+      <c r="BU38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:73" ht="17">
+      <c r="A39" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>11</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>328</v>
+      </c>
+      <c r="M39">
+        <v>304</v>
+      </c>
+      <c r="N39">
+        <v>603</v>
+      </c>
+      <c r="O39">
+        <v>490</v>
+      </c>
+      <c r="P39">
+        <v>65</v>
+      </c>
+      <c r="Q39">
+        <v>96</v>
+      </c>
+      <c r="R39">
+        <v>1053</v>
+      </c>
+      <c r="S39">
+        <v>1678</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="16"/>
+        <v>3.9868724930108179E-2</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="17"/>
+        <v>2.5749618837879046E-2</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="18"/>
+        <v>6.5636225100685758E-2</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="19"/>
+        <v>5.5643879173290937E-2</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="20"/>
+        <v>4.3074884029158385E-2</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="21"/>
+        <v>4.7737444057682744E-2</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="22"/>
+        <v>5.9731124851097626E-2</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="23"/>
+        <v>6.0956117407730312E-2</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="24"/>
+        <v>149.21053999999998</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="25"/>
+        <v>0.40247491899700927</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="26"/>
+        <v>7.4306681015965784E-2</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="27"/>
+        <v>9.3872054882986167E-2</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="28"/>
+        <v>0.21444865758142825</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="29"/>
+        <v>0.21489768752261068</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="30"/>
+        <v>1.6046161836759332E-2</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" si="31"/>
+        <v>2.9625126258948312E-3</v>
+      </c>
+      <c r="AJ39">
+        <f t="shared" si="32"/>
+        <v>3.742559134753794E-3</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="33"/>
+        <v>8.5497945407449205E-3</v>
+      </c>
+      <c r="AL39">
+        <f t="shared" si="34"/>
+        <v>8.5676967919553065E-3</v>
+      </c>
+      <c r="AM39">
+        <f t="shared" si="35"/>
+        <v>1.0363575755979232E-2</v>
+      </c>
+      <c r="AN39">
+        <f t="shared" si="9"/>
+        <v>1.9133687132689818E-3</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" si="9"/>
+        <v>2.4171696327653564E-3</v>
+      </c>
+      <c r="AP39">
+        <f t="shared" si="9"/>
+        <v>5.521971193016618E-3</v>
+      </c>
+      <c r="AQ39">
+        <f t="shared" si="9"/>
+        <v>5.5335335428488607E-3</v>
+      </c>
+      <c r="AR39">
+        <f t="shared" si="36"/>
+        <v>2.6416934380667965E-2</v>
+      </c>
+      <c r="AS39">
+        <f t="shared" si="10"/>
+        <v>4.8772100416487833E-3</v>
+      </c>
+      <c r="AT39">
+        <f t="shared" si="10"/>
+        <v>6.1614073249636079E-3</v>
+      </c>
+      <c r="AU39">
+        <f t="shared" si="10"/>
+        <v>1.4075600361554506E-2</v>
+      </c>
+      <c r="AV39">
+        <f t="shared" si="10"/>
+        <v>1.4105072991850903E-2</v>
+      </c>
+      <c r="AW39">
+        <f t="shared" si="37"/>
+        <v>2.2395265762949642E-2</v>
+      </c>
+      <c r="AX39">
+        <f t="shared" si="11"/>
+        <v>4.1347119802206712E-3</v>
+      </c>
+      <c r="AY39">
+        <f t="shared" si="11"/>
+        <v>5.2234052796574174E-3</v>
+      </c>
+      <c r="AZ39">
+        <f t="shared" si="11"/>
+        <v>1.1932755191335435E-2</v>
+      </c>
+      <c r="BA39">
+        <f t="shared" si="11"/>
+        <v>1.195774095912778E-2</v>
+      </c>
+      <c r="BB39">
+        <f t="shared" si="38"/>
+        <v>1.7336560460441089E-2</v>
+      </c>
+      <c r="BC39">
+        <f t="shared" si="12"/>
+        <v>3.2007516673543909E-3</v>
+      </c>
+      <c r="BD39">
+        <f t="shared" si="12"/>
+        <v>4.0435278776634201E-3</v>
+      </c>
+      <c r="BE39">
+        <f t="shared" si="12"/>
+        <v>9.2373510555287183E-3</v>
+      </c>
+      <c r="BF39">
+        <f t="shared" si="12"/>
+        <v>9.2566929681707714E-3</v>
+      </c>
+      <c r="BG39">
+        <f t="shared" si="39"/>
+        <v>1.9213123930240123E-2</v>
+      </c>
+      <c r="BH39">
+        <f t="shared" si="13"/>
+        <v>3.5472110281117432E-3</v>
+      </c>
+      <c r="BI39">
+        <f t="shared" si="13"/>
+        <v>4.4812119685562765E-3</v>
+      </c>
+      <c r="BJ39">
+        <f t="shared" si="13"/>
+        <v>1.0237230794538595E-2</v>
+      </c>
+      <c r="BK39">
+        <f t="shared" si="13"/>
+        <v>1.0258666336236014E-2</v>
+      </c>
+      <c r="BL39">
+        <f t="shared" si="40"/>
+        <v>2.4040279636045766E-2</v>
+      </c>
+      <c r="BM39">
+        <f t="shared" si="14"/>
+        <v>4.4384216410353382E-3</v>
+      </c>
+      <c r="BN39">
+        <f t="shared" si="14"/>
+        <v>5.6070834302447354E-3</v>
+      </c>
+      <c r="BO39">
+        <f t="shared" si="14"/>
+        <v>1.2809259540146575E-2</v>
+      </c>
+      <c r="BP39">
+        <f t="shared" si="14"/>
+        <v>1.2836080603625222E-2</v>
+      </c>
+      <c r="BQ39">
+        <f t="shared" si="41"/>
+        <v>2.4533308416048442E-2</v>
+      </c>
+      <c r="BR39">
+        <f t="shared" si="15"/>
+        <v>4.5294467721879754E-3</v>
+      </c>
+      <c r="BS39">
+        <f t="shared" si="15"/>
+        <v>5.7220759987522086E-3</v>
+      </c>
+      <c r="BT39">
+        <f t="shared" si="15"/>
+        <v>1.3071957549463695E-2</v>
+      </c>
+      <c r="BU39">
+        <f t="shared" si="15"/>
+        <v>1.3099328671277999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:73" ht="17">
+      <c r="A40" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>11</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>293</v>
+      </c>
+      <c r="M40">
+        <v>527</v>
+      </c>
+      <c r="N40">
+        <v>341</v>
+      </c>
+      <c r="O40">
+        <v>272</v>
+      </c>
+      <c r="P40">
+        <v>59</v>
+      </c>
+      <c r="Q40">
+        <v>65</v>
+      </c>
+      <c r="R40">
+        <v>684</v>
+      </c>
+      <c r="S40">
+        <v>904</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="16"/>
+        <v>3.5614440257688097E-2</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="17"/>
+        <v>4.4638319498560057E-2</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="18"/>
+        <v>3.7117666267551974E-2</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="19"/>
+        <v>3.0888030888030889E-2</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="20"/>
+        <v>3.9098740888005301E-2</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="21"/>
+        <v>3.2322227747389361E-2</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="22"/>
+        <v>3.8799705031482216E-2</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="23"/>
+        <v>3.2839290903807036E-2</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="24"/>
+        <v>165.18833999999998</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="25"/>
+        <v>0.65438214343700052</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="26"/>
+        <v>6.711938627145235E-2</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="27"/>
+        <v>8.4792304347873479E-2</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="28"/>
+        <v>0.19370616594367376</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="30"/>
+        <v>2.3305453753134937E-2</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="31"/>
+        <v>2.3904193724973303E-3</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" si="32"/>
+        <v>3.0198304575090465E-3</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="33"/>
+        <v>6.8987366745467855E-3</v>
+      </c>
+      <c r="AL40">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" si="35"/>
+        <v>2.9210519192893383E-2</v>
+      </c>
+      <c r="AN40">
+        <f t="shared" si="9"/>
+        <v>2.9960966089323557E-3</v>
+      </c>
+      <c r="AO40">
+        <f t="shared" si="9"/>
+        <v>3.7849859724995195E-3</v>
+      </c>
+      <c r="AP40">
+        <f t="shared" si="9"/>
+        <v>8.6467177242348023E-3</v>
+      </c>
+      <c r="AQ40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <f t="shared" si="36"/>
+        <v>2.4289138011539913E-2</v>
+      </c>
+      <c r="AS40">
+        <f t="shared" si="10"/>
+        <v>2.4913149797066779E-3</v>
+      </c>
+      <c r="AT40">
+        <f t="shared" si="10"/>
+        <v>3.147292454841064E-3</v>
+      </c>
+      <c r="AU40">
+        <f t="shared" si="10"/>
+        <v>7.1899208214643243E-3</v>
+      </c>
+      <c r="AV40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <f t="shared" si="37"/>
+        <v>2.0212575859057932E-2</v>
+      </c>
+      <c r="AX40">
+        <f t="shared" si="11"/>
+        <v>2.0731856763382965E-3</v>
+      </c>
+      <c r="AY40">
+        <f t="shared" si="11"/>
+        <v>2.6190673157644321E-3</v>
+      </c>
+      <c r="AZ40">
+        <f t="shared" si="11"/>
+        <v>5.9832020368702325E-3</v>
+      </c>
+      <c r="BA40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <f t="shared" si="38"/>
+        <v>2.55855178679808E-2</v>
+      </c>
+      <c r="BC40">
+        <f t="shared" si="12"/>
+        <v>2.6242834923894559E-3</v>
+      </c>
+      <c r="BD40">
+        <f t="shared" si="12"/>
+        <v>3.3152723369943905E-3</v>
+      </c>
+      <c r="BE40">
+        <f t="shared" si="12"/>
+        <v>7.573667190640657E-3</v>
+      </c>
+      <c r="BF40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <f t="shared" si="39"/>
+        <v>2.1151088673995542E-2</v>
+      </c>
+      <c r="BH40">
+        <f t="shared" si="13"/>
+        <v>2.1694480893308817E-3</v>
+      </c>
+      <c r="BI40">
+        <f t="shared" si="13"/>
+        <v>2.7406761723579197E-3</v>
+      </c>
+      <c r="BJ40">
+        <f t="shared" si="13"/>
+        <v>6.2610148117050205E-3</v>
+      </c>
+      <c r="BK40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <f t="shared" si="40"/>
+        <v>2.5389834143224706E-2</v>
+      </c>
+      <c r="BM40">
+        <f t="shared" si="14"/>
+        <v>2.6042123892264682E-3</v>
+      </c>
+      <c r="BN40">
+        <f t="shared" si="14"/>
+        <v>3.2899163976371579E-3</v>
+      </c>
+      <c r="BO40">
+        <f t="shared" si="14"/>
+        <v>7.5157421013938878E-3</v>
+      </c>
+      <c r="BP40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ40">
+        <f t="shared" si="41"/>
+        <v>2.1489445570584444E-2</v>
+      </c>
+      <c r="BR40">
+        <f t="shared" si="15"/>
+        <v>2.2041530510532158E-3</v>
+      </c>
+      <c r="BS40">
+        <f t="shared" si="15"/>
+        <v>2.7845191488839595E-3</v>
+      </c>
+      <c r="BT40">
+        <f t="shared" si="15"/>
+        <v>6.3611731332854221E-3</v>
+      </c>
+      <c r="BU40">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:73" ht="17">
+      <c r="A41" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>424</v>
+      </c>
+      <c r="M41">
+        <v>228</v>
+      </c>
+      <c r="N41">
+        <v>541</v>
+      </c>
+      <c r="O41">
+        <v>555</v>
+      </c>
+      <c r="P41">
+        <v>95</v>
+      </c>
+      <c r="Q41">
+        <v>121</v>
+      </c>
+      <c r="R41">
+        <v>1112</v>
+      </c>
+      <c r="S41">
+        <v>1752</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="16"/>
+        <v>5.1537620031603261E-2</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="17"/>
+        <v>1.9312214128409284E-2</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="18"/>
+        <v>5.8887558506585391E-2</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="19"/>
+        <v>6.3025210084033612E-2</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="20"/>
+        <v>6.2955599734923789E-2</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="21"/>
+        <v>6.0169070114370962E-2</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="22"/>
+        <v>6.3077883033637761E-2</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="23"/>
+        <v>6.3644289450741062E-2</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="24"/>
+        <v>115.12966</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="25"/>
+        <v>0.52161623685851244</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="26"/>
+        <v>7.8793422998035434E-2</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="27"/>
+        <v>0.12166022204877527</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="28"/>
+        <v>0.27793011809467694</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="30"/>
+        <v>2.6882859417528781E-2</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="31"/>
+        <v>4.0608254954621397E-3</v>
+      </c>
+      <c r="AJ41">
+        <f t="shared" si="32"/>
+        <v>6.2700782969102612E-3</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="33"/>
+        <v>1.4323856821702083E-2</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="35"/>
+        <v>1.0073564459066648E-2</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" si="9"/>
+        <v>1.5216754568483889E-3</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="9"/>
+        <v>2.3495282591157684E-3</v>
+      </c>
+      <c r="AP41">
+        <f t="shared" si="9"/>
+        <v>5.3674459533784805E-3</v>
+      </c>
+      <c r="AQ41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <f t="shared" si="36"/>
+        <v>3.0716706665990554E-2</v>
+      </c>
+      <c r="AS41">
+        <f t="shared" si="10"/>
+        <v>4.6399523067309429E-3</v>
+      </c>
+      <c r="AT41">
+        <f t="shared" si="10"/>
+        <v>7.1642734438214237E-3</v>
+      </c>
+      <c r="AU41">
+        <f t="shared" si="10"/>
+        <v>1.6366626090042476E-2</v>
+      </c>
+      <c r="AV41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <f t="shared" si="37"/>
+        <v>3.2874972911250785E-2</v>
+      </c>
+      <c r="AX41">
+        <f t="shared" si="11"/>
+        <v>4.9659720376913083E-3</v>
+      </c>
+      <c r="AY41">
+        <f t="shared" si="11"/>
+        <v>7.6676610534942395E-3</v>
+      </c>
+      <c r="AZ41">
+        <f t="shared" si="11"/>
+        <v>1.7516604081597286E-2</v>
+      </c>
+      <c r="BA41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <f t="shared" si="38"/>
+        <v>3.2838663022901712E-2</v>
+      </c>
+      <c r="BC41">
+        <f t="shared" si="12"/>
+        <v>4.960487200008858E-3</v>
+      </c>
+      <c r="BD41">
+        <f t="shared" si="12"/>
+        <v>7.6591922429646462E-3</v>
+      </c>
+      <c r="BE41">
+        <f t="shared" si="12"/>
+        <v>1.7497257269048581E-2</v>
+      </c>
+      <c r="BF41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <f t="shared" si="39"/>
+        <v>3.1385163928334167E-2</v>
+      </c>
+      <c r="BH41">
+        <f t="shared" si="13"/>
+        <v>4.7409269929200833E-3</v>
+      </c>
+      <c r="BI41">
+        <f t="shared" si="13"/>
+        <v>7.3201824305826994E-3</v>
+      </c>
+      <c r="BJ41">
+        <f t="shared" si="13"/>
+        <v>1.6722796762534017E-2</v>
+      </c>
+      <c r="BK41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL41">
+        <f t="shared" si="40"/>
+        <v>3.2902447977007539E-2</v>
+      </c>
+      <c r="BM41">
+        <f t="shared" si="14"/>
+        <v>4.9701223196900223E-3</v>
+      </c>
+      <c r="BN41">
+        <f t="shared" si="14"/>
+        <v>7.6740692562390442E-3</v>
+      </c>
+      <c r="BO41">
+        <f t="shared" si="14"/>
+        <v>1.7531243480701161E-2</v>
+      </c>
+      <c r="BP41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ41">
+        <f t="shared" si="41"/>
+        <v>3.3197894760829474E-2</v>
+      </c>
+      <c r="BR41">
+        <f t="shared" si="15"/>
+        <v>5.0147514201016449E-3</v>
+      </c>
+      <c r="BS41">
+        <f t="shared" si="15"/>
+        <v>7.742978386713683E-3</v>
+      </c>
+      <c r="BT41">
+        <f t="shared" si="15"/>
+        <v>1.7688664883096266E-2</v>
+      </c>
+      <c r="BU41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:73" ht="17">
+      <c r="A42" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>483</v>
+      </c>
+      <c r="M42">
+        <v>561</v>
+      </c>
+      <c r="N42">
+        <v>401</v>
+      </c>
+      <c r="O42">
+        <v>428</v>
+      </c>
+      <c r="P42">
+        <v>78</v>
+      </c>
+      <c r="Q42">
+        <v>97</v>
+      </c>
+      <c r="R42">
+        <v>652</v>
+      </c>
+      <c r="S42">
+        <v>1092</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="16"/>
+        <v>5.8709128479397105E-2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="17"/>
+        <v>4.7518211079112319E-2</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="18"/>
+        <v>4.3648633939262001E-2</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="19"/>
+        <v>4.860322507381331E-2</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="20"/>
+        <v>5.168986083499006E-2</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="21"/>
+        <v>4.8234709099950271E-2</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="22"/>
+        <v>3.6984514152816381E-2</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="23"/>
+        <v>3.9668700959023542E-2</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="24"/>
+        <v>105.09138</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="25"/>
+        <v>0.34286446709520801</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="26"/>
+        <v>6.7137571130952894E-2</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="27"/>
+        <v>0.13328115017616099</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="28"/>
+        <v>0.45671681159767813</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="30"/>
+        <v>2.0129274049712587E-2</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" si="31"/>
+        <v>3.9415882893217751E-3</v>
+      </c>
+      <c r="AJ42">
+        <f t="shared" si="32"/>
+        <v>7.8248201695740559E-3</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="33"/>
+        <v>2.6813445970788687E-2</v>
+      </c>
+      <c r="AL42">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <f t="shared" si="35"/>
+        <v>1.6292306118957454E-2</v>
+      </c>
+      <c r="AN42">
+        <f t="shared" si="9"/>
+        <v>3.1902572763395374E-3</v>
+      </c>
+      <c r="AO42">
+        <f t="shared" si="9"/>
+        <v>6.3332818269376855E-3</v>
+      </c>
+      <c r="AP42">
+        <f t="shared" si="9"/>
+        <v>2.1702365856877643E-2</v>
+      </c>
+      <c r="AQ42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <f t="shared" si="36"/>
+        <v>1.4965565615018876E-2</v>
+      </c>
+      <c r="AS42">
+        <f t="shared" si="10"/>
+        <v>2.9304632658661272E-3</v>
+      </c>
+      <c r="AT42">
+        <f t="shared" si="10"/>
+        <v>5.8175401350430561E-3</v>
+      </c>
+      <c r="AU42">
+        <f t="shared" si="10"/>
+        <v>1.9935064923333943E-2</v>
+      </c>
+      <c r="AV42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <f t="shared" si="37"/>
+        <v>1.6664318864041454E-2</v>
+      </c>
+      <c r="AX42">
+        <f t="shared" si="11"/>
+        <v>3.2631024805868541E-3</v>
+      </c>
+      <c r="AY42">
+        <f t="shared" si="11"/>
+        <v>6.4778937401086647E-3</v>
+      </c>
+      <c r="AZ42">
+        <f t="shared" si="11"/>
+        <v>2.219790998907634E-2</v>
+      </c>
+      <c r="BA42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <f t="shared" si="38"/>
+        <v>1.772261658941433E-2</v>
+      </c>
+      <c r="BC42">
+        <f t="shared" si="12"/>
+        <v>3.4703317085582014E-3</v>
+      </c>
+      <c r="BD42">
+        <f t="shared" si="12"/>
+        <v>6.8892841045331728E-3</v>
+      </c>
+      <c r="BE42">
+        <f t="shared" si="12"/>
+        <v>2.3607628432484356E-2</v>
+      </c>
+      <c r="BF42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG42">
+        <f t="shared" si="39"/>
+        <v>1.6537967831046829E-2</v>
+      </c>
+      <c r="BH42">
+        <f t="shared" si="13"/>
+        <v>3.238361213178732E-3</v>
+      </c>
+      <c r="BI42">
+        <f t="shared" si="13"/>
+        <v>6.4287775072539109E-3</v>
+      </c>
+      <c r="BJ42">
+        <f t="shared" si="13"/>
+        <v>2.2029602548470799E-2</v>
+      </c>
+      <c r="BK42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL42">
+        <f t="shared" si="40"/>
+        <v>1.2680675735780567E-2</v>
+      </c>
+      <c r="BM42">
+        <f t="shared" si="14"/>
+        <v>2.4830504496784439E-3</v>
+      </c>
+      <c r="BN42">
+        <f t="shared" si="14"/>
+        <v>4.9293385849938712E-3</v>
+      </c>
+      <c r="BO42">
+        <f t="shared" si="14"/>
+        <v>1.6891449382363498E-2</v>
+      </c>
+      <c r="BP42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BQ42">
+        <f t="shared" si="41"/>
+        <v>1.3600988014674773E-2</v>
+      </c>
+      <c r="BR42">
+        <f t="shared" si="15"/>
+        <v>2.6632602323089422E-3</v>
+      </c>
+      <c r="BS42">
+        <f t="shared" si="15"/>
+        <v>5.2870900898128381E-3</v>
+      </c>
+      <c r="BT42">
+        <f t="shared" si="15"/>
+        <v>1.811736262222699E-2</v>
+      </c>
+      <c r="BU42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:73" ht="17">
+      <c r="A43" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>470</v>
+      </c>
+      <c r="M43">
+        <v>626</v>
+      </c>
+      <c r="N43">
+        <v>572</v>
+      </c>
+      <c r="O43">
+        <v>511</v>
+      </c>
+      <c r="P43">
+        <v>79</v>
+      </c>
+      <c r="Q43">
+        <v>97</v>
+      </c>
+      <c r="R43">
+        <v>924</v>
+      </c>
+      <c r="S43">
+        <v>1364</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="16"/>
+        <v>5.7128965601069649E-2</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="17"/>
+        <v>5.3023886159579876E-2</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="18"/>
+        <v>6.2261891803635575E-2</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="19"/>
+        <v>5.8028616852146261E-2</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="20"/>
+        <v>5.2352551358515576E-2</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="21"/>
+        <v>4.8234709099950271E-2</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="22"/>
+        <v>5.2413636621475974E-2</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="23"/>
+        <v>4.954954954954955E-2</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="24"/>
+        <v>119.11796</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="25"/>
+        <v>0.40332121201538373</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="26"/>
+        <v>7.6155266594558874E-2</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="27"/>
+        <v>0.1175868021917098</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="28"/>
+        <v>0.40293671919834761</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="30"/>
+        <v>2.3041323647408577E-2</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" si="31"/>
+        <v>4.3506716056208421E-3</v>
+      </c>
+      <c r="AJ43">
+        <f t="shared" si="32"/>
+        <v>6.7176123775499709E-3</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="33"/>
+        <v>2.3019357970490262E-2</v>
+      </c>
+      <c r="AL43">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <f t="shared" si="35"/>
+        <v>2.1385658031647485E-2</v>
+      </c>
+      <c r="AN43">
+        <f t="shared" si="35"/>
+        <v>4.0380481863623464E-3</v>
+      </c>
+      <c r="AO43">
+        <f t="shared" si="35"/>
+        <v>6.2349092132822585E-3</v>
+      </c>
+      <c r="AP43">
+        <f t="shared" si="35"/>
+        <v>2.1365270728287786E-2</v>
+      </c>
+      <c r="AQ43">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <f t="shared" si="36"/>
+        <v>2.5111541664612987E-2</v>
+      </c>
+      <c r="AS43">
+        <f t="shared" si="36"/>
+        <v>4.7415709689874472E-3</v>
+      </c>
+      <c r="AT43">
+        <f t="shared" si="36"/>
+        <v>7.321176755595734E-3</v>
+      </c>
+      <c r="AU43">
+        <f t="shared" si="36"/>
+        <v>2.5087602414439407E-2</v>
+      </c>
+      <c r="AV43">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <f t="shared" si="37"/>
+        <v>2.340417208038395E-2</v>
+      </c>
+      <c r="AX43">
+        <f t="shared" si="37"/>
+        <v>4.4191847864887106E-3</v>
+      </c>
+      <c r="AY43">
+        <f t="shared" si="37"/>
+        <v>6.8233994912518404E-3</v>
+      </c>
+      <c r="AZ43">
+        <f t="shared" si="37"/>
+        <v>2.3381860494021762E-2</v>
+      </c>
+      <c r="BA43">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <f t="shared" si="38"/>
+        <v>2.1114894466014125E-2</v>
+      </c>
+      <c r="BC43">
+        <f t="shared" si="38"/>
+        <v>3.9869225056130891E-3</v>
+      </c>
+      <c r="BD43">
+        <f t="shared" si="38"/>
+        <v>6.155969100825099E-3</v>
+      </c>
+      <c r="BE43">
+        <f t="shared" si="38"/>
+        <v>2.1094765286063261E-2</v>
+      </c>
+      <c r="BF43">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <f t="shared" si="39"/>
+        <v>1.9454081335401403E-2</v>
+      </c>
+      <c r="BH43">
+        <f t="shared" si="39"/>
+        <v>3.6733271306177077E-3</v>
+      </c>
+      <c r="BI43">
+        <f t="shared" si="39"/>
+        <v>5.6717651977105177E-3</v>
+      </c>
+      <c r="BJ43">
+        <f t="shared" si="39"/>
+        <v>1.9435535436220643E-2</v>
+      </c>
+      <c r="BK43">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BL43">
+        <f t="shared" si="40"/>
+        <v>2.1139531448307592E-2</v>
+      </c>
+      <c r="BM43">
+        <f t="shared" si="40"/>
+        <v>3.9915744700988369E-3</v>
+      </c>
+      <c r="BN43">
+        <f t="shared" si="40"/>
+        <v>6.1631519215576526E-3</v>
+      </c>
+      <c r="BO43">
+        <f t="shared" si="40"/>
+        <v>2.1119378781511895E-2</v>
+      </c>
+      <c r="BP43">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BQ43">
+        <f t="shared" si="41"/>
+        <v>1.9984384379140636E-2</v>
+      </c>
+      <c r="BR43">
+        <f t="shared" si="41"/>
+        <v>3.7734591555862503E-3</v>
+      </c>
+      <c r="BS43">
+        <f t="shared" si="41"/>
+        <v>5.8263730815712065E-3</v>
+      </c>
+      <c r="BT43">
+        <f t="shared" si="41"/>
+        <v>1.9965332933251458E-2</v>
+      </c>
+      <c r="BU43">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:73" ht="17">
+      <c r="A44" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>12</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>161</v>
+      </c>
+      <c r="M44">
+        <v>112</v>
+      </c>
+      <c r="N44">
+        <v>237</v>
+      </c>
+      <c r="O44">
+        <v>206</v>
+      </c>
+      <c r="P44">
+        <v>40</v>
+      </c>
+      <c r="Q44">
+        <v>54</v>
+      </c>
+      <c r="R44">
+        <v>381</v>
+      </c>
+      <c r="S44">
+        <v>597</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="16"/>
+        <v>1.9569709493132369E-2</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="17"/>
+        <v>9.4867016771133326E-3</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="18"/>
+        <v>2.57973223032546E-2</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="19"/>
+        <v>2.3393141040199864E-2</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="20"/>
+        <v>2.6507620941020542E-2</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="21"/>
+        <v>2.6852312282446545E-2</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="22"/>
+        <v>2.1612116399115096E-2</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="23"/>
+        <v>2.1687009590235395E-2</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="24"/>
+        <v>204.22438</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="25"/>
+        <v>0.64692423108347796</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="26"/>
+        <v>5.9225446051054245E-2</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="27"/>
+        <v>0.13716971499680891</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="28"/>
+        <v>0.15668060786865898</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="30"/>
+        <v>1.2660119266371696E-2</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="31"/>
+        <v>1.1590247738203152E-3</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="32"/>
+        <v>2.6843714737433129E-3</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="33"/>
+        <v>3.066193979197046E-3</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" si="35"/>
+        <v>6.1371771879848835E-3</v>
+      </c>
+      <c r="AN44">
+        <f t="shared" si="35"/>
+        <v>5.618541383803215E-4</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="35"/>
+        <v>1.3012881653093849E-3</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="35"/>
+        <v>1.4863821854387436E-3</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" si="36"/>
+        <v>1.6688912895045638E-2</v>
+      </c>
+      <c r="AS44">
+        <f t="shared" si="36"/>
+        <v>1.5278579203330638E-3</v>
+      </c>
+      <c r="AT44">
+        <f t="shared" si="36"/>
+        <v>3.5386113480182554E-3</v>
+      </c>
+      <c r="AU44">
+        <f t="shared" si="36"/>
+        <v>4.0419401398576445E-3</v>
+      </c>
+      <c r="AV44">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <f t="shared" si="37"/>
+        <v>1.5133589780058649E-2</v>
+      </c>
+      <c r="AX44">
+        <f t="shared" si="37"/>
+        <v>1.38546921264106E-3</v>
+      </c>
+      <c r="AY44">
+        <f t="shared" si="37"/>
+        <v>3.2088304893643691E-3</v>
+      </c>
+      <c r="AZ44">
+        <f t="shared" si="37"/>
+        <v>3.665251558135788E-3</v>
+      </c>
+      <c r="BA44">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <f t="shared" si="38"/>
+        <v>1.7148422295122014E-2</v>
+      </c>
+      <c r="BC44">
+        <f t="shared" si="38"/>
+        <v>1.5699256739842079E-3</v>
+      </c>
+      <c r="BD44">
+        <f t="shared" si="38"/>
+        <v>3.6360428097232315E-3</v>
+      </c>
+      <c r="BE44">
+        <f t="shared" si="38"/>
+        <v>4.153230162191093E-3</v>
+      </c>
+      <c r="BF44">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BG44">
+        <f t="shared" si="39"/>
+        <v>1.7371411476135162E-2</v>
+      </c>
+      <c r="BH44">
+        <f t="shared" si="39"/>
+        <v>1.590340172430099E-3</v>
+      </c>
+      <c r="BI44">
+        <f t="shared" si="39"/>
+        <v>3.6833240227885041E-3</v>
+      </c>
+      <c r="BJ44">
+        <f t="shared" si="39"/>
+        <v>4.2072366110927819E-3</v>
+      </c>
+      <c r="BK44">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BL44">
+        <f t="shared" si="40"/>
+        <v>1.3981401783584159E-2</v>
+      </c>
+      <c r="BM44">
+        <f t="shared" si="40"/>
+        <v>1.2799872338448959E-3</v>
+      </c>
+      <c r="BN44">
+        <f t="shared" si="40"/>
+        <v>2.9645278469444779E-3</v>
+      </c>
+      <c r="BO44">
+        <f t="shared" si="40"/>
+        <v>3.3861995347415665E-3</v>
+      </c>
+      <c r="BP44">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BQ44">
+        <f t="shared" si="41"/>
+        <v>1.4029852003663046E-2</v>
+      </c>
+      <c r="BR44">
+        <f t="shared" si="41"/>
+        <v>1.2844228164951824E-3</v>
+      </c>
+      <c r="BS44">
+        <f t="shared" si="41"/>
+        <v>2.9748009246256509E-3</v>
+      </c>
+      <c r="BT44">
+        <f t="shared" si="41"/>
+        <v>3.3979338454515188E-3</v>
+      </c>
+      <c r="BU44">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:73" ht="17">
+      <c r="A45" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G45">
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <v>11</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>295</v>
+      </c>
+      <c r="M45">
+        <v>392</v>
+      </c>
+      <c r="N45">
+        <v>301</v>
+      </c>
+      <c r="O45">
+        <v>272</v>
+      </c>
+      <c r="P45">
+        <v>42</v>
+      </c>
+      <c r="Q45">
+        <v>67</v>
+      </c>
+      <c r="R45">
+        <v>341</v>
+      </c>
+      <c r="S45">
+        <v>606</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="16"/>
+        <v>3.5857542238969246E-2</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="17"/>
+        <v>3.3203455869896661E-2</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="18"/>
+        <v>3.2763687819745292E-2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="19"/>
+        <v>3.0888030888030889E-2</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="20"/>
+        <v>2.7833001988071572E-2</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="21"/>
+        <v>3.3316757831924414E-2</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="22"/>
+        <v>1.9343127800782799E-2</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="23"/>
+        <v>2.2013949433304272E-2</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="24"/>
+        <v>181.18734000000001</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="25"/>
+        <v>0.59659962997414717</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="26"/>
+        <v>6.1192685979053509E-2</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="27"/>
+        <v>7.7305069989989372E-2</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="28"/>
+        <v>0.26490261405680993</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="30"/>
+        <v>2.1392596431551406E-2</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="31"/>
+        <v>2.1942193222098923E-3</v>
+      </c>
+      <c r="AJ45">
+        <f t="shared" si="32"/>
+        <v>2.771969812452518E-3</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="33"/>
+        <v>9.49875667275543E-3</v>
+      </c>
+      <c r="AL45">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <f t="shared" si="35"/>
+        <v>1.9809169485843273E-2</v>
+      </c>
+      <c r="AN45">
+        <f t="shared" si="35"/>
+        <v>2.0318086484659471E-3</v>
+      </c>
+      <c r="AO45">
+        <f t="shared" si="35"/>
+        <v>2.5667954799318848E-3</v>
+      </c>
+      <c r="AP45">
+        <f t="shared" si="35"/>
+        <v>8.7956822556555549E-3</v>
+      </c>
+      <c r="AQ45">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <f t="shared" si="36"/>
+        <v>1.9546804029848514E-2</v>
+      </c>
+      <c r="AS45">
+        <f t="shared" si="36"/>
+        <v>2.0048980602694138E-3</v>
+      </c>
+      <c r="AT45">
+        <f t="shared" si="36"/>
+        <v>2.532799180035572E-3</v>
+      </c>
+      <c r="AU45">
+        <f t="shared" si="36"/>
+        <v>8.6791865495917907E-3</v>
+      </c>
+      <c r="AV45">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <f t="shared" si="37"/>
+        <v>1.8427787798429258E-2</v>
+      </c>
+      <c r="AX45">
+        <f t="shared" si="37"/>
+        <v>1.8901215746425794E-3</v>
+      </c>
+      <c r="AY45">
+        <f t="shared" si="37"/>
+        <v>2.3878013896521813E-3</v>
+      </c>
+      <c r="AZ45">
+        <f t="shared" si="37"/>
+        <v>8.1823201253068707E-3</v>
+      </c>
+      <c r="BA45">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <f t="shared" si="38"/>
+        <v>1.6605158687153204E-2</v>
+      </c>
+      <c r="BC45">
+        <f t="shared" si="38"/>
+        <v>1.7031761505104358E-3</v>
+      </c>
+      <c r="BD45">
+        <f t="shared" si="38"/>
+        <v>2.1516321667193862E-3</v>
+      </c>
+      <c r="BE45">
+        <f t="shared" si="38"/>
+        <v>7.3730349836885469E-3</v>
+      </c>
+      <c r="BF45">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <f t="shared" si="39"/>
+        <v>1.9876765394464375E-2</v>
+      </c>
+      <c r="BH45">
+        <f t="shared" si="39"/>
+        <v>2.038741899849122E-3</v>
+      </c>
+      <c r="BI45">
+        <f t="shared" si="39"/>
+        <v>2.5755542960364435E-3</v>
+      </c>
+      <c r="BJ45">
+        <f t="shared" si="39"/>
+        <v>8.8256962415744732E-3</v>
+      </c>
+      <c r="BK45">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BL45">
+        <f t="shared" si="40"/>
+        <v>1.1540102888489657E-2</v>
+      </c>
+      <c r="BM45">
+        <f t="shared" si="40"/>
+        <v>1.1836579453660017E-3</v>
+      </c>
+      <c r="BN45">
+        <f t="shared" si="40"/>
+        <v>1.4953218484648235E-3</v>
+      </c>
+      <c r="BO45">
+        <f t="shared" si="40"/>
+        <v>5.1240451184623162E-3</v>
+      </c>
+      <c r="BP45">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BQ45">
+        <f t="shared" si="41"/>
+        <v>1.3133514086178915E-2</v>
+      </c>
+      <c r="BR45">
+        <f t="shared" si="41"/>
+        <v>1.3470926948309513E-3</v>
+      </c>
+      <c r="BS45">
+        <f t="shared" si="41"/>
+        <v>1.7017899016976736E-3</v>
+      </c>
+      <c r="BT45">
+        <f t="shared" si="41"/>
+        <v>5.8315527505967309E-3</v>
+      </c>
+      <c r="BU45">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:73" ht="17">
+      <c r="A46" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>11</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>578</v>
+      </c>
+      <c r="M46">
+        <v>739</v>
+      </c>
+      <c r="N46">
+        <v>595</v>
+      </c>
+      <c r="O46">
+        <v>606</v>
+      </c>
+      <c r="P46">
+        <v>123</v>
+      </c>
+      <c r="Q46">
+        <v>159</v>
+      </c>
+      <c r="R46">
+        <v>1256</v>
+      </c>
+      <c r="S46">
+        <v>1953</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="16"/>
+        <v>7.0256472590251612E-2</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="17"/>
+        <v>6.2595290530238865E-2</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="18"/>
+        <v>6.4765429411124412E-2</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="19"/>
+        <v>6.8816715875539405E-2</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="20"/>
+        <v>8.1510934393638171E-2</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="21"/>
+        <v>7.9065141720537052E-2</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="22"/>
+        <v>7.1246241987634018E-2</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="23"/>
+        <v>7.0945945945945943E-2</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="24"/>
+        <v>117.14554</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="25"/>
+        <v>0.51264008855992305</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="26"/>
+        <v>9.4645856769280348E-2</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="27"/>
+        <v>0.1195666518759485</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="28"/>
+        <v>0.27314740279484823</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="30"/>
+        <v>3.601628433057439E-2</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="31"/>
+        <v>6.6494840418918249E-3</v>
+      </c>
+      <c r="AJ46">
+        <f t="shared" si="32"/>
+        <v>8.4003312002307318E-3</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="33"/>
+        <v>1.919037301755467E-2</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <f t="shared" si="35"/>
+        <v>3.2088855280855762E-2</v>
+      </c>
+      <c r="AN46">
+        <f t="shared" si="35"/>
+        <v>5.9243849019564778E-3</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="35"/>
+        <v>7.484309311902926E-3</v>
+      </c>
+      <c r="AP46">
+        <f t="shared" si="35"/>
+        <v>1.7097741035523705E-2</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <f t="shared" si="36"/>
+        <v>3.3201355468940263E-2</v>
+      </c>
+      <c r="AS46">
+        <f t="shared" si="36"/>
+        <v>6.1297795556462175E-3</v>
+      </c>
+      <c r="AT46">
+        <f t="shared" si="36"/>
+        <v>7.7437855519962287E-3</v>
+      </c>
+      <c r="AU46">
+        <f t="shared" si="36"/>
+        <v>1.7690508834541711E-2</v>
+      </c>
+      <c r="AV46">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <f t="shared" si="37"/>
+        <v>3.5278207320839583E-2</v>
+      </c>
+      <c r="AX46">
+        <f t="shared" si="37"/>
+        <v>6.5132170340885635E-3</v>
+      </c>
+      <c r="AY46">
+        <f t="shared" si="37"/>
+        <v>8.2281843103366795E-3</v>
+      </c>
+      <c r="AZ46">
+        <f t="shared" si="37"/>
+        <v>1.879710721027459E-2</v>
+      </c>
+      <c r="BA46">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <f t="shared" si="38"/>
+        <v>4.178577262615675E-2</v>
+      </c>
+      <c r="BC46">
+        <f t="shared" si="38"/>
+        <v>7.7146722217504857E-3</v>
+      </c>
+      <c r="BD46">
+        <f t="shared" si="38"/>
+        <v>9.7459895167274126E-3</v>
+      </c>
+      <c r="BE46">
+        <f t="shared" si="38"/>
+        <v>2.2264500029003532E-2</v>
+      </c>
+      <c r="BF46">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <f t="shared" si="39"/>
+        <v>4.0531961253618978E-2</v>
+      </c>
+      <c r="BH46">
+        <f t="shared" si="39"/>
+        <v>7.4831880787248018E-3</v>
+      </c>
+      <c r="BI46">
+        <f t="shared" si="39"/>
+        <v>9.4535542756219865E-3</v>
+      </c>
+      <c r="BJ46">
+        <f t="shared" si="39"/>
+        <v>2.1596438112571295E-2</v>
+      </c>
+      <c r="BK46">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <f t="shared" si="40"/>
+        <v>3.6523679802102409E-2</v>
+      </c>
+      <c r="BM46">
+        <f t="shared" si="40"/>
+        <v>6.7431616145110966E-3</v>
+      </c>
+      <c r="BN46">
+        <f t="shared" si="40"/>
+        <v>8.5186746132050219E-3</v>
+      </c>
+      <c r="BO46">
+        <f t="shared" si="40"/>
+        <v>1.9460725957815499E-2</v>
+      </c>
+      <c r="BP46">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <f t="shared" si="41"/>
+        <v>3.6369736012697239E-2</v>
+      </c>
+      <c r="BR46">
+        <f t="shared" si="41"/>
+        <v>6.7147398383611053E-3</v>
+      </c>
+      <c r="BS46">
+        <f t="shared" si="41"/>
+        <v>8.4827692209287781E-3</v>
+      </c>
+      <c r="BT46">
+        <f t="shared" si="41"/>
+        <v>1.9378700873958828E-2</v>
+      </c>
+      <c r="BU46">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:73">
+      <c r="A47" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G47" s="9">
+        <v>12.0107</v>
+      </c>
+      <c r="H47" s="9">
+        <v>1.0079400000000001</v>
+      </c>
+      <c r="I47" s="9">
+        <v>14.0067</v>
+      </c>
+      <c r="J47" s="9">
+        <v>15.999000000000001</v>
+      </c>
+      <c r="K47" s="9">
+        <v>32.064999999999998</v>
+      </c>
+      <c r="L47" s="3">
+        <f>SUM(L27:L46)</f>
+        <v>8227</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" ref="M47:S47" si="42">SUM(M27:M46)</f>
+        <v>11806</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="42"/>
+        <v>9187</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="42"/>
+        <v>8806</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="42"/>
+        <v>1509</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" si="42"/>
+        <v>2011</v>
+      </c>
+      <c r="R47" s="3">
+        <f t="shared" si="42"/>
+        <v>17629</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" si="42"/>
+        <v>27528</v>
+      </c>
+      <c r="AH47">
+        <f>SUM(AH27:AH46)</f>
+        <v>0.44915073007614126</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" ref="AI47:AL47" si="43">SUM(AI27:AI46)</f>
+        <v>7.6583771209105228E-2</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" si="43"/>
+        <v>0.15176970530265829</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="43"/>
+        <v>0.30829849163771328</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="43"/>
+        <v>1.4197301774381877E-2</v>
+      </c>
+      <c r="AM47">
+        <f>SUM(AM27:AM46)</f>
+        <v>0.45480708392678981</v>
+      </c>
+      <c r="AN47">
+        <f t="shared" ref="AN47:AQ47" si="44">SUM(AN27:AN46)</f>
+        <v>7.7271526993089201E-2</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="44"/>
+        <v>0.14173501335363028</v>
+      </c>
+      <c r="AP47">
+        <f t="shared" si="44"/>
+        <v>0.31679710841497571</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" si="44"/>
+        <v>9.3892673115150704E-3</v>
+      </c>
+      <c r="AR47">
+        <f>SUM(AR27:AR46)</f>
+        <v>0.45469547704840346</v>
+      </c>
+      <c r="AS47">
+        <f t="shared" ref="AS47:AV47" si="45">SUM(AS27:AS46)</f>
+        <v>7.6520427025481799E-2</v>
+      </c>
+      <c r="AT47">
+        <f t="shared" si="45"/>
+        <v>0.14840759528516129</v>
+      </c>
+      <c r="AU47">
+        <f t="shared" si="45"/>
+        <v>0.30169101316884184</v>
+      </c>
+      <c r="AV47">
+        <f t="shared" si="45"/>
+        <v>1.8685487472111718E-2</v>
+      </c>
+      <c r="AW47">
+        <f t="shared" ref="AW47" si="46">SUM(AW27:AW46)</f>
+        <v>0.45223675874452679</v>
+      </c>
+      <c r="AX47">
+        <f t="shared" ref="AX47" si="47">SUM(AX27:AX46)</f>
+        <v>7.6440518928437701E-2</v>
+      </c>
+      <c r="AY47">
+        <f t="shared" ref="AY47" si="48">SUM(AY27:AY46)</f>
+        <v>0.14924015276705418</v>
+      </c>
+      <c r="AZ47">
+        <f t="shared" ref="AZ47" si="49">SUM(AZ27:AZ46)</f>
+        <v>0.3065183452142986</v>
+      </c>
+      <c r="BA47">
+        <f t="shared" ref="BA47" si="50">SUM(BA27:BA46)</f>
+        <v>1.5564224345682925E-2</v>
+      </c>
+      <c r="BB47">
+        <f t="shared" ref="BB47" si="51">SUM(BB27:BB46)</f>
+        <v>0.45440241039865631</v>
+      </c>
+      <c r="BC47">
+        <f t="shared" ref="BC47" si="52">SUM(BC27:BC46)</f>
+        <v>7.6614832743953212E-2</v>
+      </c>
+      <c r="BD47">
+        <f t="shared" ref="BD47" si="53">SUM(BD27:BD46)</f>
+        <v>0.15032134868881805</v>
+      </c>
+      <c r="BE47">
+        <f t="shared" ref="BE47" si="54">SUM(BE27:BE46)</f>
+        <v>0.30431855389955054</v>
+      </c>
+      <c r="BF47">
+        <f t="shared" ref="BF47" si="55">SUM(BF27:BF46)</f>
+        <v>1.4342854269021963E-2</v>
+      </c>
+      <c r="BG47">
+        <f t="shared" ref="BG47" si="56">SUM(BG27:BG46)</f>
+        <v>0.45022025768963986</v>
+      </c>
+      <c r="BH47">
+        <f t="shared" ref="BH47" si="57">SUM(BH27:BH46)</f>
+        <v>7.582435952641188E-2</v>
+      </c>
+      <c r="BI47">
+        <f t="shared" ref="BI47" si="58">SUM(BI27:BI46)</f>
+        <v>0.15040642841158047</v>
+      </c>
+      <c r="BJ47">
+        <f t="shared" ref="BJ47" si="59">SUM(BJ27:BJ46)</f>
+        <v>0.30513083607390606</v>
+      </c>
+      <c r="BK47">
+        <f t="shared" ref="BK47" si="60">SUM(BK27:BK46)</f>
+        <v>1.8418118298461631E-2</v>
+      </c>
+      <c r="BL47">
+        <f t="shared" ref="BL47" si="61">SUM(BL27:BL46)</f>
+        <v>0.45630495489789635</v>
+      </c>
+      <c r="BM47">
+        <f t="shared" ref="BM47" si="62">SUM(BM27:BM46)</f>
+        <v>7.7014781619016134E-2</v>
+      </c>
+      <c r="BN47">
+        <f t="shared" ref="BN47" si="63">SUM(BN27:BN46)</f>
+        <v>0.14355055836248815</v>
+      </c>
+      <c r="BO47">
+        <f t="shared" ref="BO47" si="64">SUM(BO27:BO46)</f>
+        <v>0.30670563145829288</v>
+      </c>
+      <c r="BP47">
+        <f t="shared" ref="BP47" si="65">SUM(BP27:BP46)</f>
+        <v>1.6424073662306516E-2</v>
+      </c>
+      <c r="BQ47">
+        <f t="shared" ref="BQ47" si="66">SUM(BQ27:BQ46)</f>
+        <v>0.45436569379741149</v>
+      </c>
+      <c r="BR47">
+        <f t="shared" ref="BR47" si="67">SUM(BR27:BR46)</f>
+        <v>7.6828532330603716E-2</v>
+      </c>
+      <c r="BS47">
+        <f t="shared" ref="BS47" si="68">SUM(BS27:BS46)</f>
+        <v>0.14413626342478619</v>
+      </c>
+      <c r="BT47">
+        <f t="shared" ref="BT47" si="69">SUM(BT27:BT46)</f>
+        <v>0.30834947254193718</v>
+      </c>
+      <c r="BU47">
+        <f t="shared" ref="BU47" si="70">SUM(BU27:BU46)</f>
+        <v>1.6320037905261441E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49E3CB0-EF03-BC44-A14B-0BDC3E88426D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>